--- a/Planificare Engleza.xlsx
+++ b/Planificare Engleza.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natalia\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="LearnAtHome" sheetId="2" r:id="rId1"/>
@@ -17,12 +12,12 @@
     <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LearnAtHome!$A$1:$F$582</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LearnAtHome!$A$1:$G$582</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$A$1:$C$14</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -30,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2113" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2133" uniqueCount="654">
   <si>
     <t>My father's story</t>
   </si>
@@ -1938,16 +1933,70 @@
   </si>
   <si>
     <t>langa</t>
+  </si>
+  <si>
+    <t>tough</t>
+  </si>
+  <si>
+    <t>greu</t>
+  </si>
+  <si>
+    <t>Speaking</t>
+  </si>
+  <si>
+    <t>fond</t>
+  </si>
+  <si>
+    <t>iubitor</t>
+  </si>
+  <si>
+    <t>combative</t>
+  </si>
+  <si>
+    <t>bataios</t>
+  </si>
+  <si>
+    <t>punch bag</t>
+  </si>
+  <si>
+    <t>sac de lovit</t>
+  </si>
+  <si>
+    <t>a lovi cu pumnul</t>
+  </si>
+  <si>
+    <t>to punch</t>
+  </si>
+  <si>
+    <t>bag</t>
+  </si>
+  <si>
+    <t>geanta, sac</t>
+  </si>
+  <si>
+    <t>punch</t>
+  </si>
+  <si>
+    <t>lovitura cu pumnul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in order </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pentru a </t>
+  </si>
+  <si>
+    <t>writing + Speaking</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1956,7 +2005,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1966,6 +2015,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1982,7 +2037,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1990,6 +2045,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2050,7 +2106,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2085,7 +2141,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2262,23 +2318,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I582"/>
   <sheetViews>
-    <sheetView topLeftCell="A275" workbookViewId="0">
-      <selection activeCell="F298" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
+      <selection activeCell="C303" sqref="C303"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="159.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="159.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" customWidth="1"/>
+    <col min="1" max="1" width="63.85546875" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" customWidth="1"/>
     <col min="4" max="4" width="22.28515625" customWidth="1"/>
@@ -2289,7 +2345,7 @@
     <col min="9" max="9" width="159.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1">
       <c r="A1" t="s">
         <v>74</v>
       </c>
@@ -2306,7 +2362,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>53</v>
       </c>
@@ -2329,7 +2385,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2352,7 +2408,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -2375,7 +2431,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -2395,7 +2451,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="1" customFormat="1">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -2418,7 +2474,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="1" customFormat="1">
       <c r="A7" s="1" t="s">
         <v>49</v>
       </c>
@@ -2441,7 +2497,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>57</v>
       </c>
@@ -2461,7 +2517,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -2481,7 +2537,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>50</v>
       </c>
@@ -2501,41 +2557,53 @@
         <v>546</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B11" t="s">
-        <v>523</v>
-      </c>
-      <c r="C11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" t="s">
-        <v>528</v>
-      </c>
-      <c r="E11" s="4">
+      <c r="B11" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="E11" s="5">
         <v>42857</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="F11" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B12" t="s">
-        <v>523</v>
-      </c>
-      <c r="C12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" t="s">
-        <v>528</v>
-      </c>
-      <c r="E12" s="4">
+      <c r="B12" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="E12" s="5">
         <v>42857</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F12" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>54</v>
       </c>
@@ -2552,7 +2620,7 @@
         <v>42858</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -2569,7 +2637,7 @@
         <v>42858</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -2586,7 +2654,7 @@
         <v>42859</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -2603,7 +2671,7 @@
         <v>42859</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -2620,7 +2688,7 @@
         <v>42860</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" s="1" customFormat="1">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -2641,7 +2709,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -2658,7 +2726,7 @@
         <v>42861</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>55</v>
       </c>
@@ -2675,7 +2743,7 @@
         <v>42861</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -2692,7 +2760,7 @@
         <v>42862</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -2709,7 +2777,7 @@
         <v>42862</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -2727,7 +2795,7 @@
         <v>42863</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -2745,7 +2813,7 @@
         <v>42863</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -2763,7 +2831,7 @@
         <v>42864</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>68</v>
       </c>
@@ -2781,7 +2849,7 @@
         <v>42864</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>64</v>
       </c>
@@ -2799,7 +2867,7 @@
         <v>42865</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -2817,7 +2885,7 @@
         <v>42865</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>71</v>
       </c>
@@ -2835,7 +2903,7 @@
         <v>42866</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -2853,7 +2921,7 @@
         <v>42866</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>48</v>
       </c>
@@ -2871,7 +2939,7 @@
         <v>42867</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -2889,7 +2957,7 @@
         <v>42867</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>47</v>
       </c>
@@ -2907,7 +2975,7 @@
         <v>42868</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>22</v>
       </c>
@@ -2925,7 +2993,7 @@
         <v>42868</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -2943,7 +3011,7 @@
         <v>42869</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -2961,7 +3029,7 @@
         <v>42869</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>60</v>
       </c>
@@ -2979,7 +3047,7 @@
         <v>42870</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>73</v>
       </c>
@@ -2997,7 +3065,7 @@
         <v>42870</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>63</v>
       </c>
@@ -3015,7 +3083,7 @@
         <v>42871</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>69</v>
       </c>
@@ -3033,7 +3101,7 @@
         <v>42871</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>14</v>
       </c>
@@ -3051,7 +3119,7 @@
         <v>42872</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -3069,7 +3137,7 @@
         <v>42872</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>62</v>
       </c>
@@ -3087,7 +3155,7 @@
         <v>42873</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>59</v>
       </c>
@@ -3105,7 +3173,7 @@
         <v>42873</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -3123,7 +3191,7 @@
         <v>42874</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>15</v>
       </c>
@@ -3141,7 +3209,7 @@
         <v>42874</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>23</v>
       </c>
@@ -3159,7 +3227,7 @@
         <v>42875</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -3177,7 +3245,7 @@
         <v>42875</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>67</v>
       </c>
@@ -3195,7 +3263,7 @@
         <v>42876</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
         <v>34</v>
       </c>
@@ -3213,7 +3281,7 @@
         <v>42876</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
         <v>61</v>
       </c>
@@ -3231,7 +3299,7 @@
         <v>42877</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
         <v>44</v>
       </c>
@@ -3249,7 +3317,7 @@
         <v>42877</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -3267,7 +3335,7 @@
         <v>42878</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
         <v>39</v>
       </c>
@@ -3285,7 +3353,7 @@
         <v>42878</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -3303,7 +3371,7 @@
         <v>42879</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
         <v>21</v>
       </c>
@@ -3321,7 +3389,7 @@
         <v>42879</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
         <v>18</v>
       </c>
@@ -3339,7 +3407,7 @@
         <v>42880</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
         <v>38</v>
       </c>
@@ -3357,7 +3425,7 @@
         <v>42880</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
         <v>66</v>
       </c>
@@ -3375,7 +3443,7 @@
         <v>42881</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
         <v>36</v>
       </c>
@@ -3393,7 +3461,7 @@
         <v>42881</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
         <v>32</v>
       </c>
@@ -3411,7 +3479,7 @@
         <v>42882</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
         <v>42</v>
       </c>
@@ -3429,7 +3497,7 @@
         <v>42882</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
         <v>40</v>
       </c>
@@ -3447,7 +3515,7 @@
         <v>42883</v>
       </c>
     </row>
-    <row r="64" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" s="1" customFormat="1">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -3469,7 +3537,7 @@
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -3487,7 +3555,7 @@
         <v>42884</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>20</v>
       </c>
@@ -3505,7 +3573,7 @@
         <v>42884</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>17</v>
       </c>
@@ -3523,7 +3591,7 @@
         <v>42885</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
         <v>37</v>
       </c>
@@ -3541,7 +3609,7 @@
         <v>42885</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
         <v>16</v>
       </c>
@@ -3559,7 +3627,7 @@
         <v>42886</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
         <v>11</v>
       </c>
@@ -3577,7 +3645,7 @@
         <v>42886</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
         <v>72</v>
       </c>
@@ -3595,7 +3663,7 @@
         <v>42887</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>19</v>
       </c>
@@ -3613,7 +3681,7 @@
         <v>42887</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>33</v>
       </c>
@@ -3631,7 +3699,7 @@
         <v>42888</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>58</v>
       </c>
@@ -3649,7 +3717,7 @@
         <v>42888</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>35</v>
       </c>
@@ -3667,7 +3735,7 @@
         <v>42889</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>260</v>
       </c>
@@ -3685,7 +3753,7 @@
         <v>42889</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>117</v>
       </c>
@@ -3703,7 +3771,7 @@
         <v>42890</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>97</v>
       </c>
@@ -3721,7 +3789,7 @@
         <v>42890</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
         <v>119</v>
       </c>
@@ -3739,7 +3807,7 @@
         <v>42891</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
         <v>118</v>
       </c>
@@ -3757,7 +3825,7 @@
         <v>42891</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5">
       <c r="A81" t="s">
         <v>96</v>
       </c>
@@ -3775,7 +3843,7 @@
         <v>42892</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5">
       <c r="A82" t="s">
         <v>104</v>
       </c>
@@ -3793,7 +3861,7 @@
         <v>42892</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
         <v>122</v>
       </c>
@@ -3811,7 +3879,7 @@
         <v>42893</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5">
       <c r="A84" t="s">
         <v>102</v>
       </c>
@@ -3829,7 +3897,7 @@
         <v>42893</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
         <v>80</v>
       </c>
@@ -3847,7 +3915,7 @@
         <v>42894</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -3865,7 +3933,7 @@
         <v>42894</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5">
       <c r="A87" t="s">
         <v>83</v>
       </c>
@@ -3883,7 +3951,7 @@
         <v>42895</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5">
       <c r="A88" t="s">
         <v>115</v>
       </c>
@@ -3901,7 +3969,7 @@
         <v>42895</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5">
       <c r="A89" t="s">
         <v>78</v>
       </c>
@@ -3919,7 +3987,7 @@
         <v>42896</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5">
       <c r="A90" t="s">
         <v>114</v>
       </c>
@@ -3937,7 +4005,7 @@
         <v>42896</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5">
       <c r="A91" t="s">
         <v>105</v>
       </c>
@@ -3955,7 +4023,7 @@
         <v>42897</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5">
       <c r="A92" t="s">
         <v>82</v>
       </c>
@@ -3973,7 +4041,7 @@
         <v>42897</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5">
       <c r="A93" t="s">
         <v>103</v>
       </c>
@@ -3991,7 +4059,7 @@
         <v>42898</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5">
       <c r="A94" t="s">
         <v>120</v>
       </c>
@@ -4009,7 +4077,7 @@
         <v>42898</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5">
       <c r="A95" t="s">
         <v>88</v>
       </c>
@@ -4027,7 +4095,7 @@
         <v>42899</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5">
       <c r="A96" t="s">
         <v>81</v>
       </c>
@@ -4045,7 +4113,7 @@
         <v>42899</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5">
       <c r="A97" t="s">
         <v>99</v>
       </c>
@@ -4063,7 +4131,7 @@
         <v>42900</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5">
       <c r="A98" t="s">
         <v>116</v>
       </c>
@@ -4081,7 +4149,7 @@
         <v>42900</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5">
       <c r="A99" t="s">
         <v>84</v>
       </c>
@@ -4099,7 +4167,7 @@
         <v>42901</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5">
       <c r="A100" t="s">
         <v>100</v>
       </c>
@@ -4117,7 +4185,7 @@
         <v>42901</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5">
       <c r="A101" t="s">
         <v>87</v>
       </c>
@@ -4135,7 +4203,7 @@
         <v>42902</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5">
       <c r="A102" t="s">
         <v>79</v>
       </c>
@@ -4153,7 +4221,7 @@
         <v>42902</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5">
       <c r="A103" t="s">
         <v>101</v>
       </c>
@@ -4171,7 +4239,7 @@
         <v>42903</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5">
       <c r="A104" t="s">
         <v>121</v>
       </c>
@@ -4189,7 +4257,7 @@
         <v>42903</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5">
       <c r="A105" t="s">
         <v>123</v>
       </c>
@@ -4207,7 +4275,7 @@
         <v>42904</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5">
       <c r="A106" t="s">
         <v>90</v>
       </c>
@@ -4225,7 +4293,7 @@
         <v>42904</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5">
       <c r="A107" t="s">
         <v>92</v>
       </c>
@@ -4243,7 +4311,7 @@
         <v>42905</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5">
       <c r="A108" t="s">
         <v>111</v>
       </c>
@@ -4261,7 +4329,7 @@
         <v>42905</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5">
       <c r="A109" t="s">
         <v>109</v>
       </c>
@@ -4279,7 +4347,7 @@
         <v>42906</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5">
       <c r="A110" t="s">
         <v>126</v>
       </c>
@@ -4297,7 +4365,7 @@
         <v>42906</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5">
       <c r="A111" t="s">
         <v>112</v>
       </c>
@@ -4315,7 +4383,7 @@
         <v>42907</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5">
       <c r="A112" t="s">
         <v>106</v>
       </c>
@@ -4333,7 +4401,7 @@
         <v>42907</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5">
       <c r="A113" t="s">
         <v>98</v>
       </c>
@@ -4351,7 +4419,7 @@
         <v>42908</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5">
       <c r="A114" t="s">
         <v>131</v>
       </c>
@@ -4369,7 +4437,7 @@
         <v>42908</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5">
       <c r="A115" t="s">
         <v>89</v>
       </c>
@@ -4387,7 +4455,7 @@
         <v>42909</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5">
       <c r="A116" t="s">
         <v>86</v>
       </c>
@@ -4405,7 +4473,7 @@
         <v>42909</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5">
       <c r="A117" t="s">
         <v>125</v>
       </c>
@@ -4423,7 +4491,7 @@
         <v>42910</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5">
       <c r="A118" t="s">
         <v>107</v>
       </c>
@@ -4441,7 +4509,7 @@
         <v>42910</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5">
       <c r="A119" t="s">
         <v>128</v>
       </c>
@@ -4459,7 +4527,7 @@
         <v>42911</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5">
       <c r="A120" t="s">
         <v>113</v>
       </c>
@@ -4477,7 +4545,7 @@
         <v>42911</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5">
       <c r="A121" t="s">
         <v>93</v>
       </c>
@@ -4495,7 +4563,7 @@
         <v>42912</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5">
       <c r="A122" t="s">
         <v>95</v>
       </c>
@@ -4513,7 +4581,7 @@
         <v>42912</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5">
       <c r="A123" t="s">
         <v>110</v>
       </c>
@@ -4531,7 +4599,7 @@
         <v>42913</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5">
       <c r="A124" t="s">
         <v>129</v>
       </c>
@@ -4549,7 +4617,7 @@
         <v>42913</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -4567,7 +4635,7 @@
         <v>42914</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5">
       <c r="A126" t="s">
         <v>130</v>
       </c>
@@ -4585,7 +4653,7 @@
         <v>42914</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5">
       <c r="A127" t="s">
         <v>94</v>
       </c>
@@ -4603,7 +4671,7 @@
         <v>42915</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -4621,7 +4689,7 @@
         <v>42915</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5">
       <c r="A129" t="s">
         <v>91</v>
       </c>
@@ -4639,7 +4707,7 @@
         <v>42916</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5">
       <c r="A130" t="s">
         <v>108</v>
       </c>
@@ -4657,7 +4725,7 @@
         <v>42916</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5">
       <c r="A131" t="s">
         <v>261</v>
       </c>
@@ -4675,7 +4743,7 @@
         <v>42917</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5">
       <c r="A132" t="s">
         <v>263</v>
       </c>
@@ -4693,7 +4761,7 @@
         <v>42917</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5">
       <c r="A133" t="s">
         <v>266</v>
       </c>
@@ -4711,7 +4779,7 @@
         <v>42918</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5">
       <c r="A134" t="s">
         <v>270</v>
       </c>
@@ -4729,7 +4797,7 @@
         <v>42918</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5">
       <c r="A135" t="s">
         <v>262</v>
       </c>
@@ -4747,7 +4815,7 @@
         <v>42919</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5">
       <c r="A136" t="s">
         <v>264</v>
       </c>
@@ -4765,7 +4833,7 @@
         <v>42919</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5">
       <c r="A137" t="s">
         <v>271</v>
       </c>
@@ -4783,7 +4851,7 @@
         <v>42920</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5">
       <c r="A138" t="s">
         <v>269</v>
       </c>
@@ -4801,7 +4869,7 @@
         <v>42920</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5">
       <c r="A139" t="s">
         <v>267</v>
       </c>
@@ -4819,7 +4887,7 @@
         <v>42921</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5">
       <c r="A140" t="s">
         <v>265</v>
       </c>
@@ -4837,7 +4905,7 @@
         <v>42921</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5">
       <c r="A141" t="s">
         <v>268</v>
       </c>
@@ -4855,7 +4923,7 @@
         <v>42922</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5">
       <c r="A142" t="s">
         <v>198</v>
       </c>
@@ -4873,7 +4941,7 @@
         <v>42922</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5">
       <c r="A143" t="s">
         <v>192</v>
       </c>
@@ -4891,7 +4959,7 @@
         <v>42923</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5">
       <c r="A144" t="s">
         <v>194</v>
       </c>
@@ -4909,7 +4977,7 @@
         <v>42923</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5">
       <c r="A145" t="s">
         <v>166</v>
       </c>
@@ -4927,7 +4995,7 @@
         <v>42924</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5">
       <c r="A146" t="s">
         <v>163</v>
       </c>
@@ -4945,7 +5013,7 @@
         <v>42924</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5">
       <c r="A147" t="s">
         <v>175</v>
       </c>
@@ -4963,7 +5031,7 @@
         <v>42925</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5">
       <c r="A148" t="s">
         <v>142</v>
       </c>
@@ -4981,7 +5049,7 @@
         <v>42925</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5">
       <c r="A149" t="s">
         <v>145</v>
       </c>
@@ -4999,7 +5067,7 @@
         <v>42926</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5">
       <c r="A150" t="s">
         <v>169</v>
       </c>
@@ -5017,7 +5085,7 @@
         <v>42926</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5">
       <c r="A151" t="s">
         <v>141</v>
       </c>
@@ -5035,7 +5103,7 @@
         <v>42927</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5">
       <c r="A152" t="s">
         <v>196</v>
       </c>
@@ -5053,7 +5121,7 @@
         <v>42927</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5">
       <c r="A153" t="s">
         <v>170</v>
       </c>
@@ -5071,7 +5139,7 @@
         <v>42928</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5">
       <c r="A154" t="s">
         <v>200</v>
       </c>
@@ -5089,7 +5157,7 @@
         <v>42928</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5">
       <c r="A155" t="s">
         <v>201</v>
       </c>
@@ -5107,7 +5175,7 @@
         <v>42929</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5">
       <c r="A156" t="s">
         <v>140</v>
       </c>
@@ -5125,7 +5193,7 @@
         <v>42929</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5">
       <c r="A157" t="s">
         <v>133</v>
       </c>
@@ -5143,7 +5211,7 @@
         <v>42930</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5">
       <c r="A158" t="s">
         <v>165</v>
       </c>
@@ -5161,7 +5229,7 @@
         <v>42930</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5">
       <c r="A159" t="s">
         <v>176</v>
       </c>
@@ -5179,7 +5247,7 @@
         <v>42931</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5">
       <c r="A160" t="s">
         <v>205</v>
       </c>
@@ -5197,7 +5265,7 @@
         <v>42931</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5">
       <c r="A161" t="s">
         <v>161</v>
       </c>
@@ -5215,7 +5283,7 @@
         <v>42932</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5">
       <c r="A162" t="s">
         <v>171</v>
       </c>
@@ -5233,7 +5301,7 @@
         <v>42932</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5">
       <c r="A163" t="s">
         <v>168</v>
       </c>
@@ -5251,7 +5319,7 @@
         <v>42933</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5">
       <c r="A164" t="s">
         <v>203</v>
       </c>
@@ -5269,7 +5337,7 @@
         <v>42933</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5">
       <c r="A165" t="s">
         <v>174</v>
       </c>
@@ -5280,7 +5348,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5">
       <c r="A166" t="s">
         <v>143</v>
       </c>
@@ -5291,7 +5359,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5">
       <c r="A167" t="s">
         <v>206</v>
       </c>
@@ -5302,7 +5370,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5">
       <c r="A168" t="s">
         <v>199</v>
       </c>
@@ -5313,7 +5381,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5">
       <c r="A169" t="s">
         <v>191</v>
       </c>
@@ -5324,7 +5392,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5">
       <c r="A170" t="s">
         <v>190</v>
       </c>
@@ -5335,7 +5403,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5">
       <c r="A171" t="s">
         <v>147</v>
       </c>
@@ -5346,7 +5414,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5">
       <c r="A172" t="s">
         <v>204</v>
       </c>
@@ -5357,7 +5425,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5">
       <c r="A173" t="s">
         <v>138</v>
       </c>
@@ -5368,7 +5436,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5">
       <c r="A174" t="s">
         <v>139</v>
       </c>
@@ -5379,7 +5447,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5">
       <c r="A175" t="s">
         <v>135</v>
       </c>
@@ -5390,7 +5458,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5">
       <c r="A176" t="s">
         <v>146</v>
       </c>
@@ -5401,7 +5469,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3">
       <c r="A177" t="s">
         <v>172</v>
       </c>
@@ -5412,7 +5480,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3">
       <c r="A178" t="s">
         <v>195</v>
       </c>
@@ -5423,7 +5491,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3">
       <c r="A179" t="s">
         <v>132</v>
       </c>
@@ -5434,7 +5502,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3">
       <c r="A180" t="s">
         <v>197</v>
       </c>
@@ -5445,7 +5513,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3">
       <c r="A181" t="s">
         <v>144</v>
       </c>
@@ -5456,7 +5524,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3">
       <c r="A182" t="s">
         <v>136</v>
       </c>
@@ -5467,7 +5535,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3">
       <c r="A183" t="s">
         <v>162</v>
       </c>
@@ -5478,7 +5546,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3">
       <c r="A184" t="s">
         <v>134</v>
       </c>
@@ -5489,7 +5557,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3">
       <c r="A185" t="s">
         <v>193</v>
       </c>
@@ -5500,7 +5568,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3">
       <c r="A186" t="s">
         <v>164</v>
       </c>
@@ -5511,7 +5579,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3">
       <c r="A187" t="s">
         <v>167</v>
       </c>
@@ -5522,7 +5590,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3">
       <c r="A188" t="s">
         <v>137</v>
       </c>
@@ -5533,7 +5601,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3">
       <c r="A189" t="s">
         <v>150</v>
       </c>
@@ -5544,7 +5612,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3">
       <c r="A190" t="s">
         <v>208</v>
       </c>
@@ -5555,7 +5623,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3">
       <c r="A191" t="s">
         <v>152</v>
       </c>
@@ -5566,7 +5634,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3">
       <c r="A192" t="s">
         <v>179</v>
       </c>
@@ -5577,7 +5645,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3">
       <c r="A193" t="s">
         <v>210</v>
       </c>
@@ -5588,7 +5656,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3">
       <c r="A194" t="s">
         <v>189</v>
       </c>
@@ -5599,7 +5667,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3">
       <c r="A195" t="s">
         <v>160</v>
       </c>
@@ -5610,7 +5678,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3">
       <c r="A196" t="s">
         <v>217</v>
       </c>
@@ -5621,7 +5689,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3">
       <c r="A197" t="s">
         <v>148</v>
       </c>
@@ -5632,7 +5700,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3">
       <c r="A198" t="s">
         <v>178</v>
       </c>
@@ -5643,7 +5711,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3">
       <c r="A199" t="s">
         <v>156</v>
       </c>
@@ -5654,7 +5722,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3">
       <c r="A200" t="s">
         <v>188</v>
       </c>
@@ -5665,7 +5733,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3">
       <c r="A201" t="s">
         <v>159</v>
       </c>
@@ -5676,7 +5744,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3">
       <c r="A202" t="s">
         <v>207</v>
       </c>
@@ -5687,7 +5755,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3">
       <c r="A203" t="s">
         <v>185</v>
       </c>
@@ -5698,7 +5766,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3">
       <c r="A204" t="s">
         <v>184</v>
       </c>
@@ -5709,7 +5777,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3">
       <c r="A205" t="s">
         <v>158</v>
       </c>
@@ -5720,7 +5788,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3">
       <c r="A206" t="s">
         <v>151</v>
       </c>
@@ -5731,7 +5799,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3">
       <c r="A207" t="s">
         <v>155</v>
       </c>
@@ -5742,7 +5810,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3">
       <c r="A208" t="s">
         <v>183</v>
       </c>
@@ -5753,7 +5821,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3">
       <c r="A209" t="s">
         <v>209</v>
       </c>
@@ -5764,7 +5832,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3">
       <c r="A210" t="s">
         <v>216</v>
       </c>
@@ -5775,7 +5843,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3">
       <c r="A211" t="s">
         <v>215</v>
       </c>
@@ -5786,7 +5854,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3">
       <c r="A212" t="s">
         <v>187</v>
       </c>
@@ -5797,7 +5865,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3">
       <c r="A213" t="s">
         <v>149</v>
       </c>
@@ -5808,7 +5876,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3">
       <c r="A214" t="s">
         <v>186</v>
       </c>
@@ -5819,7 +5887,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3">
       <c r="A215" t="s">
         <v>202</v>
       </c>
@@ -5830,7 +5898,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3">
       <c r="A216" t="s">
         <v>153</v>
       </c>
@@ -5841,7 +5909,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3">
       <c r="A217" t="s">
         <v>177</v>
       </c>
@@ -5852,7 +5920,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3">
       <c r="A218" t="s">
         <v>182</v>
       </c>
@@ -5863,7 +5931,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3">
       <c r="A219" t="s">
         <v>211</v>
       </c>
@@ -5874,7 +5942,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3">
       <c r="A220" t="s">
         <v>180</v>
       </c>
@@ -5885,7 +5953,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3">
       <c r="A221" t="s">
         <v>181</v>
       </c>
@@ -5896,7 +5964,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3">
       <c r="A222" t="s">
         <v>154</v>
       </c>
@@ -5907,7 +5975,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3">
       <c r="A223" t="s">
         <v>157</v>
       </c>
@@ -5918,7 +5986,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3">
       <c r="A224" t="s">
         <v>214</v>
       </c>
@@ -5929,7 +5997,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3">
       <c r="A225" t="s">
         <v>173</v>
       </c>
@@ -5940,7 +6008,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3">
       <c r="A226" t="s">
         <v>212</v>
       </c>
@@ -5951,7 +6019,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3">
       <c r="A227" t="s">
         <v>213</v>
       </c>
@@ -5962,7 +6030,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3">
       <c r="A228" t="s">
         <v>272</v>
       </c>
@@ -5973,7 +6041,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3">
       <c r="A229" t="s">
         <v>273</v>
       </c>
@@ -5984,7 +6052,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3">
       <c r="A230" t="s">
         <v>280</v>
       </c>
@@ -5995,7 +6063,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3">
       <c r="A231" t="s">
         <v>276</v>
       </c>
@@ -6006,7 +6074,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3">
       <c r="A232" t="s">
         <v>277</v>
       </c>
@@ -6017,7 +6085,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3">
       <c r="A233" t="s">
         <v>274</v>
       </c>
@@ -6028,7 +6096,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3">
       <c r="A234" t="s">
         <v>281</v>
       </c>
@@ -6039,7 +6107,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3">
       <c r="A235" t="s">
         <v>275</v>
       </c>
@@ -6050,7 +6118,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3">
       <c r="A236" t="s">
         <v>278</v>
       </c>
@@ -6061,7 +6129,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3">
       <c r="A237" t="s">
         <v>279</v>
       </c>
@@ -6072,7 +6140,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3">
       <c r="A238" t="s">
         <v>282</v>
       </c>
@@ -6083,7 +6151,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3">
       <c r="A239" t="s">
         <v>246</v>
       </c>
@@ -6094,7 +6162,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3">
       <c r="A240" t="s">
         <v>235</v>
       </c>
@@ -6105,7 +6173,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3">
       <c r="A241" t="s">
         <v>251</v>
       </c>
@@ -6116,7 +6184,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3">
       <c r="A242" t="s">
         <v>225</v>
       </c>
@@ -6127,7 +6195,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3">
       <c r="A243" t="s">
         <v>223</v>
       </c>
@@ -6138,7 +6206,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3">
       <c r="A244" t="s">
         <v>250</v>
       </c>
@@ -6149,7 +6217,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3">
       <c r="A245" t="s">
         <v>232</v>
       </c>
@@ -6160,7 +6228,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3">
       <c r="A246" t="s">
         <v>239</v>
       </c>
@@ -6171,7 +6239,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3">
       <c r="A247" t="s">
         <v>224</v>
       </c>
@@ -6182,7 +6250,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3">
       <c r="A248" t="s">
         <v>249</v>
       </c>
@@ -6193,7 +6261,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3">
       <c r="A249" t="s">
         <v>219</v>
       </c>
@@ -6204,7 +6272,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3">
       <c r="A250" t="s">
         <v>248</v>
       </c>
@@ -6215,7 +6283,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3">
       <c r="A251" t="s">
         <v>221</v>
       </c>
@@ -6226,7 +6294,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3">
       <c r="A252" t="s">
         <v>237</v>
       </c>
@@ -6237,7 +6305,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3">
       <c r="A253" t="s">
         <v>238</v>
       </c>
@@ -6248,7 +6316,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3">
       <c r="A254" t="s">
         <v>220</v>
       </c>
@@ -6259,7 +6327,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3">
       <c r="A255" t="s">
         <v>218</v>
       </c>
@@ -6270,7 +6338,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3">
       <c r="A256" t="s">
         <v>234</v>
       </c>
@@ -6281,7 +6349,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3">
       <c r="A257" t="s">
         <v>236</v>
       </c>
@@ -6292,7 +6360,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3">
       <c r="A258" t="s">
         <v>240</v>
       </c>
@@ -6303,7 +6371,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3">
       <c r="A259" t="s">
         <v>233</v>
       </c>
@@ -6314,7 +6382,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3">
       <c r="A260" t="s">
         <v>253</v>
       </c>
@@ -6325,7 +6393,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3">
       <c r="A261" t="s">
         <v>222</v>
       </c>
@@ -6336,7 +6404,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3">
       <c r="A262" t="s">
         <v>247</v>
       </c>
@@ -6347,7 +6415,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3">
       <c r="A263" t="s">
         <v>242</v>
       </c>
@@ -6358,7 +6426,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3">
       <c r="A264" t="s">
         <v>230</v>
       </c>
@@ -6369,7 +6437,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3">
       <c r="A265" t="s">
         <v>229</v>
       </c>
@@ -6380,7 +6448,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3">
       <c r="A266" t="s">
         <v>244</v>
       </c>
@@ -6391,7 +6459,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3">
       <c r="A267" t="s">
         <v>231</v>
       </c>
@@ -6402,7 +6470,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3">
       <c r="A268" t="s">
         <v>228</v>
       </c>
@@ -6413,7 +6481,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3">
       <c r="A269" t="s">
         <v>252</v>
       </c>
@@ -6424,7 +6492,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3">
       <c r="A270" t="s">
         <v>245</v>
       </c>
@@ -6435,7 +6503,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3">
       <c r="A271" t="s">
         <v>243</v>
       </c>
@@ -6446,7 +6514,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3">
       <c r="A272" t="s">
         <v>227</v>
       </c>
@@ -6457,7 +6525,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9">
       <c r="A273" t="s">
         <v>256</v>
       </c>
@@ -6468,7 +6536,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9">
       <c r="A274" t="s">
         <v>255</v>
       </c>
@@ -6479,7 +6547,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9">
       <c r="A275" t="s">
         <v>241</v>
       </c>
@@ -6490,7 +6558,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9">
       <c r="A276" t="s">
         <v>226</v>
       </c>
@@ -6501,7 +6569,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9">
       <c r="A277" t="s">
         <v>258</v>
       </c>
@@ -6512,7 +6580,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9">
       <c r="A278" t="s">
         <v>259</v>
       </c>
@@ -6523,7 +6591,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9">
       <c r="A279" t="s">
         <v>254</v>
       </c>
@@ -6534,7 +6602,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9">
       <c r="A280" t="s">
         <v>257</v>
       </c>
@@ -6545,7 +6613,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9">
       <c r="A281" t="s">
         <v>283</v>
       </c>
@@ -6556,7 +6624,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9">
       <c r="A282" t="s">
         <v>284</v>
       </c>
@@ -6567,7 +6635,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="283" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" s="1" customFormat="1">
       <c r="A283" t="s">
         <v>285</v>
       </c>
@@ -6584,7 +6652,7 @@
       <c r="H283" s="2"/>
       <c r="I283" s="2"/>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9">
       <c r="A284" s="1" t="s">
         <v>307</v>
       </c>
@@ -6604,7 +6672,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9">
       <c r="A285" s="1" t="s">
         <v>304</v>
       </c>
@@ -6624,9 +6692,9 @@
         <v>546</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9">
       <c r="A286" t="s">
-        <v>292</v>
+        <v>317</v>
       </c>
       <c r="B286" t="s">
         <v>529</v>
@@ -6637,11 +6705,13 @@
       <c r="D286" t="s">
         <v>528</v>
       </c>
-      <c r="E286" s="6"/>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E286" s="6">
+        <v>42857</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9">
       <c r="A287" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B287" t="s">
         <v>529</v>
@@ -6652,11 +6722,13 @@
       <c r="D287" t="s">
         <v>528</v>
       </c>
-      <c r="E287" s="6"/>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E287" s="6">
+        <v>42858</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9">
       <c r="A288" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B288" t="s">
         <v>529</v>
@@ -6667,11 +6739,13 @@
       <c r="D288" t="s">
         <v>528</v>
       </c>
-      <c r="E288" s="6"/>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E288" s="6">
+        <v>42859</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
       <c r="A289" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B289" t="s">
         <v>529</v>
@@ -6682,11 +6756,13 @@
       <c r="D289" t="s">
         <v>528</v>
       </c>
-      <c r="E289" s="6"/>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E289" s="6">
+        <v>42860</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
       <c r="A290" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B290" t="s">
         <v>529</v>
@@ -6697,11 +6773,13 @@
       <c r="D290" t="s">
         <v>528</v>
       </c>
-      <c r="E290" s="6"/>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E290" s="6">
+        <v>42861</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
       <c r="A291" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="B291" t="s">
         <v>529</v>
@@ -6712,11 +6790,13 @@
       <c r="D291" t="s">
         <v>528</v>
       </c>
-      <c r="E291" s="6"/>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E291" s="6">
+        <v>42862</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
       <c r="A292" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B292" t="s">
         <v>529</v>
@@ -6727,11 +6807,13 @@
       <c r="D292" t="s">
         <v>528</v>
       </c>
-      <c r="E292" s="6"/>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E292" s="6">
+        <v>42863</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
       <c r="A293" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B293" t="s">
         <v>529</v>
@@ -6742,11 +6824,13 @@
       <c r="D293" t="s">
         <v>528</v>
       </c>
-      <c r="E293" s="6"/>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E293" s="6">
+        <v>42864</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
       <c r="A294" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="B294" t="s">
         <v>529</v>
@@ -6757,11 +6841,13 @@
       <c r="D294" t="s">
         <v>528</v>
       </c>
-      <c r="E294" s="6"/>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E294" s="6">
+        <v>42865</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
       <c r="A295" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="B295" t="s">
         <v>529</v>
@@ -6772,11 +6858,13 @@
       <c r="D295" t="s">
         <v>528</v>
       </c>
-      <c r="E295" s="6"/>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E295" s="6">
+        <v>42866</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
       <c r="A296" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="B296" t="s">
         <v>529</v>
@@ -6787,11 +6875,13 @@
       <c r="D296" t="s">
         <v>528</v>
       </c>
-      <c r="E296" s="6"/>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E296" s="6">
+        <v>42867</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
       <c r="A297" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="B297" t="s">
         <v>529</v>
@@ -6802,11 +6892,13 @@
       <c r="D297" t="s">
         <v>528</v>
       </c>
-      <c r="E297" s="6"/>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E297" s="6">
+        <v>42868</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
       <c r="A298" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="B298" t="s">
         <v>529</v>
@@ -6817,11 +6909,13 @@
       <c r="D298" t="s">
         <v>528</v>
       </c>
-      <c r="E298" s="6"/>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E298" s="6">
+        <v>42869</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
       <c r="A299" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B299" t="s">
         <v>529</v>
@@ -6832,11 +6926,13 @@
       <c r="D299" t="s">
         <v>528</v>
       </c>
-      <c r="E299" s="6"/>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E299" s="6">
+        <v>42870</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
       <c r="A300" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B300" t="s">
         <v>529</v>
@@ -6847,11 +6943,13 @@
       <c r="D300" t="s">
         <v>528</v>
       </c>
-      <c r="E300" s="6"/>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E300" s="6">
+        <v>42871</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
       <c r="A301" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B301" t="s">
         <v>529</v>
@@ -6862,11 +6960,13 @@
       <c r="D301" t="s">
         <v>528</v>
       </c>
-      <c r="E301" s="6"/>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E301" s="6">
+        <v>42872</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
       <c r="A302" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B302" t="s">
         <v>529</v>
@@ -6877,11 +6977,13 @@
       <c r="D302" t="s">
         <v>528</v>
       </c>
-      <c r="E302" s="6"/>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E302" s="6">
+        <v>42873</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
       <c r="A303" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B303" t="s">
         <v>529</v>
@@ -6892,11 +6994,13 @@
       <c r="D303" t="s">
         <v>528</v>
       </c>
-      <c r="E303" s="6"/>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E303" s="6">
+        <v>42874</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
       <c r="A304" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="B304" t="s">
         <v>529</v>
@@ -6907,11 +7011,13 @@
       <c r="D304" t="s">
         <v>528</v>
       </c>
-      <c r="E304" s="6"/>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E304" s="6">
+        <v>42875</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
       <c r="A305" t="s">
-        <v>315</v>
+        <v>287</v>
       </c>
       <c r="B305" t="s">
         <v>529</v>
@@ -6922,11 +7028,13 @@
       <c r="D305" t="s">
         <v>528</v>
       </c>
-      <c r="E305" s="6"/>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E305" s="6">
+        <v>42876</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
       <c r="A306" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="B306" t="s">
         <v>529</v>
@@ -6937,11 +7045,13 @@
       <c r="D306" t="s">
         <v>528</v>
       </c>
-      <c r="E306" s="6"/>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E306" s="6">
+        <v>42877</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
       <c r="A307" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B307" t="s">
         <v>529</v>
@@ -6952,11 +7062,13 @@
       <c r="D307" t="s">
         <v>528</v>
       </c>
-      <c r="E307" s="6"/>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E307" s="6">
+        <v>42878</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
       <c r="A308" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="B308" t="s">
         <v>529</v>
@@ -6967,11 +7079,13 @@
       <c r="D308" t="s">
         <v>528</v>
       </c>
-      <c r="E308" s="6"/>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E308" s="6">
+        <v>42879</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
       <c r="A309" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="B309" t="s">
         <v>529</v>
@@ -6982,11 +7096,13 @@
       <c r="D309" t="s">
         <v>528</v>
       </c>
-      <c r="E309" s="6"/>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E309" s="6">
+        <v>42880</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
       <c r="A310" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="B310" t="s">
         <v>529</v>
@@ -6997,11 +7113,13 @@
       <c r="D310" t="s">
         <v>528</v>
       </c>
-      <c r="E310" s="6"/>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E310" s="6">
+        <v>42881</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
       <c r="A311" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B311" t="s">
         <v>529</v>
@@ -7012,11 +7130,13 @@
       <c r="D311" t="s">
         <v>528</v>
       </c>
-      <c r="E311" s="6"/>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E311" s="6">
+        <v>42882</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
       <c r="A312" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B312" t="s">
         <v>529</v>
@@ -7027,11 +7147,13 @@
       <c r="D312" t="s">
         <v>528</v>
       </c>
-      <c r="E312" s="6"/>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E312" s="6">
+        <v>42883</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
       <c r="A313" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B313" t="s">
         <v>529</v>
@@ -7042,9 +7164,11 @@
       <c r="D313" t="s">
         <v>528</v>
       </c>
-      <c r="E313" s="6"/>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E313" s="6">
+        <v>42884</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
       <c r="A314" t="s">
         <v>305</v>
       </c>
@@ -7057,9 +7181,11 @@
       <c r="D314" t="s">
         <v>528</v>
       </c>
-      <c r="E314" s="6"/>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E314" s="6">
+        <v>42885</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
       <c r="A315" t="s">
         <v>288</v>
       </c>
@@ -7072,9 +7198,11 @@
       <c r="D315" t="s">
         <v>528</v>
       </c>
-      <c r="E315" s="6"/>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E315" s="6">
+        <v>42886</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
       <c r="A316" t="s">
         <v>313</v>
       </c>
@@ -7087,9 +7215,11 @@
       <c r="D316" t="s">
         <v>528</v>
       </c>
-      <c r="E316" s="6"/>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E316" s="6">
+        <v>42887</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5">
       <c r="A317" t="s">
         <v>359</v>
       </c>
@@ -7102,9 +7232,11 @@
       <c r="D317" t="s">
         <v>528</v>
       </c>
-      <c r="E317" s="6"/>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E317" s="6">
+        <v>42888</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
       <c r="A318" t="s">
         <v>370</v>
       </c>
@@ -7117,9 +7249,11 @@
       <c r="D318" t="s">
         <v>528</v>
       </c>
-      <c r="E318" s="6"/>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E318" s="6">
+        <v>42889</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
       <c r="A319" t="s">
         <v>353</v>
       </c>
@@ -7132,9 +7266,11 @@
       <c r="D319" t="s">
         <v>528</v>
       </c>
-      <c r="E319" s="6"/>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E319" s="6">
+        <v>42890</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
       <c r="A320" t="s">
         <v>361</v>
       </c>
@@ -7147,9 +7283,11 @@
       <c r="D320" t="s">
         <v>528</v>
       </c>
-      <c r="E320" s="6"/>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E320" s="6">
+        <v>42891</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
       <c r="A321" t="s">
         <v>321</v>
       </c>
@@ -7162,9 +7300,11 @@
       <c r="D321" t="s">
         <v>528</v>
       </c>
-      <c r="E321" s="6"/>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E321" s="6">
+        <v>42892</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
       <c r="A322" t="s">
         <v>358</v>
       </c>
@@ -7177,9 +7317,11 @@
       <c r="D322" t="s">
         <v>528</v>
       </c>
-      <c r="E322" s="6"/>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E322" s="6">
+        <v>42893</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
       <c r="A323" t="s">
         <v>348</v>
       </c>
@@ -7192,9 +7334,11 @@
       <c r="D323" t="s">
         <v>528</v>
       </c>
-      <c r="E323" s="6"/>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E323" s="6">
+        <v>42894</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
       <c r="A324" t="s">
         <v>350</v>
       </c>
@@ -7207,9 +7351,11 @@
       <c r="D324" t="s">
         <v>528</v>
       </c>
-      <c r="E324" s="6"/>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E324" s="6">
+        <v>42895</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
       <c r="A325" t="s">
         <v>345</v>
       </c>
@@ -7222,9 +7368,11 @@
       <c r="D325" t="s">
         <v>528</v>
       </c>
-      <c r="E325" s="6"/>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E325" s="6">
+        <v>42896</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
       <c r="A326" t="s">
         <v>344</v>
       </c>
@@ -7237,9 +7385,11 @@
       <c r="D326" t="s">
         <v>528</v>
       </c>
-      <c r="E326" s="6"/>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E326" s="6">
+        <v>42897</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
       <c r="A327" t="s">
         <v>352</v>
       </c>
@@ -7252,9 +7402,11 @@
       <c r="D327" t="s">
         <v>528</v>
       </c>
-      <c r="E327" s="6"/>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E327" s="6">
+        <v>42898</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5">
       <c r="A328" t="s">
         <v>334</v>
       </c>
@@ -7267,9 +7419,11 @@
       <c r="D328" t="s">
         <v>528</v>
       </c>
-      <c r="E328" s="6"/>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E328" s="6">
+        <v>42899</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
       <c r="A329" t="s">
         <v>332</v>
       </c>
@@ -7282,9 +7436,11 @@
       <c r="D329" t="s">
         <v>528</v>
       </c>
-      <c r="E329" s="6"/>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E329" s="6">
+        <v>42900</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5">
       <c r="A330" t="s">
         <v>337</v>
       </c>
@@ -7297,9 +7453,11 @@
       <c r="D330" t="s">
         <v>528</v>
       </c>
-      <c r="E330" s="6"/>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E330" s="6">
+        <v>42901</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5">
       <c r="A331" t="s">
         <v>333</v>
       </c>
@@ -7312,9 +7470,11 @@
       <c r="D331" t="s">
         <v>528</v>
       </c>
-      <c r="E331" s="6"/>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E331" s="6">
+        <v>42902</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
       <c r="A332" t="s">
         <v>360</v>
       </c>
@@ -7327,9 +7487,11 @@
       <c r="D332" t="s">
         <v>528</v>
       </c>
-      <c r="E332" s="6"/>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E332" s="6">
+        <v>42903</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
       <c r="A333" t="s">
         <v>320</v>
       </c>
@@ -7342,9 +7504,11 @@
       <c r="D333" t="s">
         <v>528</v>
       </c>
-      <c r="E333" s="6"/>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E333" s="6">
+        <v>42904</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
       <c r="A334" t="s">
         <v>369</v>
       </c>
@@ -7357,9 +7521,11 @@
       <c r="D334" t="s">
         <v>528</v>
       </c>
-      <c r="E334" s="6"/>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E334" s="6">
+        <v>42905</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
       <c r="A335" t="s">
         <v>336</v>
       </c>
@@ -7372,9 +7538,11 @@
       <c r="D335" t="s">
         <v>528</v>
       </c>
-      <c r="E335" s="6"/>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E335" s="6">
+        <v>42906</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
       <c r="A336" t="s">
         <v>349</v>
       </c>
@@ -7387,9 +7555,11 @@
       <c r="D336" t="s">
         <v>528</v>
       </c>
-      <c r="E336" s="6"/>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E336" s="6">
+        <v>42907</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
       <c r="A337" t="s">
         <v>338</v>
       </c>
@@ -7402,9 +7572,11 @@
       <c r="D337" t="s">
         <v>528</v>
       </c>
-      <c r="E337" s="6"/>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E337" s="6">
+        <v>42908</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
       <c r="A338" t="s">
         <v>365</v>
       </c>
@@ -7417,9 +7589,11 @@
       <c r="D338" t="s">
         <v>528</v>
       </c>
-      <c r="E338" s="6"/>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E338" s="6">
+        <v>42909</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5">
       <c r="A339" t="s">
         <v>327</v>
       </c>
@@ -7432,9 +7606,11 @@
       <c r="D339" t="s">
         <v>528</v>
       </c>
-      <c r="E339" s="6"/>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E339" s="6">
+        <v>42910</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5">
       <c r="A340" t="s">
         <v>362</v>
       </c>
@@ -7447,9 +7623,11 @@
       <c r="D340" t="s">
         <v>528</v>
       </c>
-      <c r="E340" s="6"/>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E340" s="6">
+        <v>42911</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5">
       <c r="A341" t="s">
         <v>330</v>
       </c>
@@ -7462,9 +7640,11 @@
       <c r="D341" t="s">
         <v>528</v>
       </c>
-      <c r="E341" s="6"/>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E341" s="6">
+        <v>42912</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
       <c r="A342" t="s">
         <v>326</v>
       </c>
@@ -7477,9 +7657,11 @@
       <c r="D342" t="s">
         <v>528</v>
       </c>
-      <c r="E342" s="6"/>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E342" s="6">
+        <v>42913</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5">
       <c r="A343" t="s">
         <v>329</v>
       </c>
@@ -7492,9 +7674,11 @@
       <c r="D343" t="s">
         <v>528</v>
       </c>
-      <c r="E343" s="6"/>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E343" s="6">
+        <v>42914</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
       <c r="A344" t="s">
         <v>328</v>
       </c>
@@ -7507,9 +7691,11 @@
       <c r="D344" t="s">
         <v>528</v>
       </c>
-      <c r="E344" s="6"/>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E344" s="6">
+        <v>42915</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
       <c r="A345" t="s">
         <v>342</v>
       </c>
@@ -7522,9 +7708,11 @@
       <c r="D345" t="s">
         <v>528</v>
       </c>
-      <c r="E345" s="6"/>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E345" s="6">
+        <v>42916</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5">
       <c r="A346" t="s">
         <v>355</v>
       </c>
@@ -7537,9 +7725,11 @@
       <c r="D346" t="s">
         <v>528</v>
       </c>
-      <c r="E346" s="6"/>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E346" s="6">
+        <v>42917</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5">
       <c r="A347" t="s">
         <v>322</v>
       </c>
@@ -7552,9 +7742,11 @@
       <c r="D347" t="s">
         <v>528</v>
       </c>
-      <c r="E347" s="6"/>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E347" s="6">
+        <v>42918</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5">
       <c r="A348" t="s">
         <v>325</v>
       </c>
@@ -7567,9 +7759,11 @@
       <c r="D348" t="s">
         <v>528</v>
       </c>
-      <c r="E348" s="6"/>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E348" s="6">
+        <v>42919</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5">
       <c r="A349" t="s">
         <v>368</v>
       </c>
@@ -7582,9 +7776,11 @@
       <c r="D349" t="s">
         <v>528</v>
       </c>
-      <c r="E349" s="6"/>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E349" s="6">
+        <v>42920</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5">
       <c r="A350" t="s">
         <v>339</v>
       </c>
@@ -7597,9 +7793,11 @@
       <c r="D350" t="s">
         <v>528</v>
       </c>
-      <c r="E350" s="6"/>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E350" s="6">
+        <v>42921</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5">
       <c r="A351" t="s">
         <v>356</v>
       </c>
@@ -7612,9 +7810,11 @@
       <c r="D351" t="s">
         <v>528</v>
       </c>
-      <c r="E351" s="6"/>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E351" s="6">
+        <v>42922</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5">
       <c r="A352" t="s">
         <v>351</v>
       </c>
@@ -7627,9 +7827,11 @@
       <c r="D352" t="s">
         <v>528</v>
       </c>
-      <c r="E352" s="6"/>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E352" s="6">
+        <v>42923</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5">
       <c r="A353" t="s">
         <v>357</v>
       </c>
@@ -7642,9 +7844,11 @@
       <c r="D353" t="s">
         <v>528</v>
       </c>
-      <c r="E353" s="6"/>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E353" s="6">
+        <v>42924</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5">
       <c r="A354" t="s">
         <v>341</v>
       </c>
@@ -7657,9 +7861,11 @@
       <c r="D354" t="s">
         <v>528</v>
       </c>
-      <c r="E354" s="6"/>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E354" s="6">
+        <v>42925</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5">
       <c r="A355" t="s">
         <v>324</v>
       </c>
@@ -7672,9 +7878,11 @@
       <c r="D355" t="s">
         <v>528</v>
       </c>
-      <c r="E355" s="6"/>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E355" s="6">
+        <v>42926</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5">
       <c r="A356" t="s">
         <v>323</v>
       </c>
@@ -7687,9 +7895,11 @@
       <c r="D356" t="s">
         <v>528</v>
       </c>
-      <c r="E356" s="6"/>
-    </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E356" s="6">
+        <v>42927</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5">
       <c r="A357" t="s">
         <v>363</v>
       </c>
@@ -7702,9 +7912,11 @@
       <c r="D357" t="s">
         <v>528</v>
       </c>
-      <c r="E357" s="6"/>
-    </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E357" s="6">
+        <v>42928</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5">
       <c r="A358" t="s">
         <v>366</v>
       </c>
@@ -7717,9 +7929,11 @@
       <c r="D358" t="s">
         <v>528</v>
       </c>
-      <c r="E358" s="6"/>
-    </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E358" s="6">
+        <v>42929</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5">
       <c r="A359" t="s">
         <v>367</v>
       </c>
@@ -7732,9 +7946,11 @@
       <c r="D359" t="s">
         <v>528</v>
       </c>
-      <c r="E359" s="6"/>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E359" s="6">
+        <v>42930</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5">
       <c r="A360" t="s">
         <v>346</v>
       </c>
@@ -7747,9 +7963,11 @@
       <c r="D360" t="s">
         <v>528</v>
       </c>
-      <c r="E360" s="6"/>
-    </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E360" s="6">
+        <v>42931</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5">
       <c r="A361" t="s">
         <v>364</v>
       </c>
@@ -7762,9 +7980,11 @@
       <c r="D361" t="s">
         <v>528</v>
       </c>
-      <c r="E361" s="6"/>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E361" s="6">
+        <v>42932</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5">
       <c r="A362" t="s">
         <v>347</v>
       </c>
@@ -7777,9 +7997,11 @@
       <c r="D362" t="s">
         <v>528</v>
       </c>
-      <c r="E362" s="6"/>
-    </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E362" s="6">
+        <v>42933</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5">
       <c r="A363" t="s">
         <v>340</v>
       </c>
@@ -7792,9 +8014,11 @@
       <c r="D363" t="s">
         <v>528</v>
       </c>
-      <c r="E363" s="6"/>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E363" s="6">
+        <v>42934</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5">
       <c r="A364" t="s">
         <v>331</v>
       </c>
@@ -7807,9 +8031,11 @@
       <c r="D364" t="s">
         <v>528</v>
       </c>
-      <c r="E364" s="6"/>
-    </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E364" s="6">
+        <v>42935</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5">
       <c r="A365" t="s">
         <v>335</v>
       </c>
@@ -7822,9 +8048,11 @@
       <c r="D365" t="s">
         <v>528</v>
       </c>
-      <c r="E365" s="6"/>
-    </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E365" s="6">
+        <v>42936</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5">
       <c r="A366" t="s">
         <v>343</v>
       </c>
@@ -7837,9 +8065,11 @@
       <c r="D366" t="s">
         <v>528</v>
       </c>
-      <c r="E366" s="6"/>
-    </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E366" s="6">
+        <v>42937</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5">
       <c r="A367" t="s">
         <v>354</v>
       </c>
@@ -7852,9 +8082,11 @@
       <c r="D367" t="s">
         <v>528</v>
       </c>
-      <c r="E367" s="6"/>
-    </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E367" s="6">
+        <v>42938</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5">
       <c r="A368" t="s">
         <v>491</v>
       </c>
@@ -7865,7 +8097,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3">
       <c r="A369" t="s">
         <v>413</v>
       </c>
@@ -7876,7 +8108,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3">
       <c r="A370" t="s">
         <v>424</v>
       </c>
@@ -7887,7 +8119,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3">
       <c r="A371" t="s">
         <v>406</v>
       </c>
@@ -7898,7 +8130,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3">
       <c r="A372" t="s">
         <v>426</v>
       </c>
@@ -7909,7 +8141,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3">
       <c r="A373" t="s">
         <v>469</v>
       </c>
@@ -7920,7 +8152,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:3">
       <c r="A374" t="s">
         <v>425</v>
       </c>
@@ -7931,7 +8163,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3">
       <c r="A375" t="s">
         <v>454</v>
       </c>
@@ -7942,7 +8174,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:3">
       <c r="A376" t="s">
         <v>482</v>
       </c>
@@ -7953,7 +8185,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3">
       <c r="A377" t="s">
         <v>374</v>
       </c>
@@ -7964,7 +8196,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3">
       <c r="A378" t="s">
         <v>449</v>
       </c>
@@ -7975,7 +8207,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3">
       <c r="A379" t="s">
         <v>408</v>
       </c>
@@ -7986,7 +8218,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:3">
       <c r="A380" t="s">
         <v>385</v>
       </c>
@@ -7997,7 +8229,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:3">
       <c r="A381" t="s">
         <v>399</v>
       </c>
@@ -8008,7 +8240,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:3">
       <c r="A382" t="s">
         <v>484</v>
       </c>
@@ -8019,7 +8251,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:3">
       <c r="A383" t="s">
         <v>441</v>
       </c>
@@ -8030,7 +8262,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:3">
       <c r="A384" t="s">
         <v>420</v>
       </c>
@@ -8041,7 +8273,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:3">
       <c r="A385" t="s">
         <v>479</v>
       </c>
@@ -8052,7 +8284,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:3">
       <c r="A386" t="s">
         <v>462</v>
       </c>
@@ -8063,7 +8295,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:3">
       <c r="A387" t="s">
         <v>419</v>
       </c>
@@ -8074,7 +8306,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:3">
       <c r="A388" t="s">
         <v>377</v>
       </c>
@@ -8085,7 +8317,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:3">
       <c r="A389" t="s">
         <v>468</v>
       </c>
@@ -8096,7 +8328,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:3">
       <c r="A390" t="s">
         <v>457</v>
       </c>
@@ -8107,7 +8339,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:3">
       <c r="A391" t="s">
         <v>498</v>
       </c>
@@ -8118,7 +8350,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:3">
       <c r="A392" t="s">
         <v>447</v>
       </c>
@@ -8129,7 +8361,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:3">
       <c r="A393" t="s">
         <v>497</v>
       </c>
@@ -8140,7 +8372,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:3">
       <c r="A394" t="s">
         <v>493</v>
       </c>
@@ -8151,7 +8383,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:3">
       <c r="A395" t="s">
         <v>403</v>
       </c>
@@ -8162,7 +8394,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:3">
       <c r="A396" t="s">
         <v>445</v>
       </c>
@@ -8173,7 +8405,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:3">
       <c r="A397" t="s">
         <v>487</v>
       </c>
@@ -8184,7 +8416,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:3">
       <c r="A398" t="s">
         <v>401</v>
       </c>
@@ -8195,7 +8427,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:3">
       <c r="A399" t="s">
         <v>486</v>
       </c>
@@ -8206,7 +8438,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:3">
       <c r="A400" t="s">
         <v>438</v>
       </c>
@@ -8217,7 +8449,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:3">
       <c r="A401" t="s">
         <v>455</v>
       </c>
@@ -8228,7 +8460,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:3">
       <c r="A402" t="s">
         <v>453</v>
       </c>
@@ -8239,7 +8471,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:3">
       <c r="A403" t="s">
         <v>395</v>
       </c>
@@ -8250,7 +8482,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:3">
       <c r="A404" t="s">
         <v>412</v>
       </c>
@@ -8261,7 +8493,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:3">
       <c r="A405" t="s">
         <v>459</v>
       </c>
@@ -8272,7 +8504,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:3">
       <c r="A406" t="s">
         <v>410</v>
       </c>
@@ -8283,7 +8515,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:3">
       <c r="A407" t="s">
         <v>434</v>
       </c>
@@ -8294,7 +8526,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:3">
       <c r="A408" t="s">
         <v>456</v>
       </c>
@@ -8305,7 +8537,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:3">
       <c r="A409" t="s">
         <v>391</v>
       </c>
@@ -8316,7 +8548,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:3">
       <c r="A410" t="s">
         <v>383</v>
       </c>
@@ -8327,7 +8559,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:3">
       <c r="A411" t="s">
         <v>476</v>
       </c>
@@ -8338,7 +8570,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:3">
       <c r="A412" t="s">
         <v>437</v>
       </c>
@@ -8349,7 +8581,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:3">
       <c r="A413" t="s">
         <v>480</v>
       </c>
@@ -8360,7 +8592,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:3">
       <c r="A414" t="s">
         <v>397</v>
       </c>
@@ -8371,7 +8603,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:3">
       <c r="A415" t="s">
         <v>470</v>
       </c>
@@ -8382,7 +8614,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:3">
       <c r="A416" t="s">
         <v>376</v>
       </c>
@@ -8393,7 +8625,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:3">
       <c r="A417" t="s">
         <v>467</v>
       </c>
@@ -8404,7 +8636,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:3">
       <c r="A418" t="s">
         <v>381</v>
       </c>
@@ -8415,7 +8647,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:3">
       <c r="A419" t="s">
         <v>466</v>
       </c>
@@ -8426,7 +8658,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:3">
       <c r="A420" t="s">
         <v>423</v>
       </c>
@@ -8437,7 +8669,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:3">
       <c r="A421" t="s">
         <v>380</v>
       </c>
@@ -8448,7 +8680,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:3">
       <c r="A422" t="s">
         <v>384</v>
       </c>
@@ -8459,7 +8691,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:3">
       <c r="A423" t="s">
         <v>461</v>
       </c>
@@ -8470,7 +8702,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:3">
       <c r="A424" t="s">
         <v>373</v>
       </c>
@@ -8481,7 +8713,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:3">
       <c r="A425" t="s">
         <v>465</v>
       </c>
@@ -8492,7 +8724,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:3">
       <c r="A426" t="s">
         <v>422</v>
       </c>
@@ -8503,7 +8735,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:3">
       <c r="A427" t="s">
         <v>464</v>
       </c>
@@ -8514,7 +8746,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:3">
       <c r="A428" t="s">
         <v>379</v>
       </c>
@@ -8525,7 +8757,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:3">
       <c r="A429" t="s">
         <v>421</v>
       </c>
@@ -8536,7 +8768,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:3">
       <c r="A430" t="s">
         <v>378</v>
       </c>
@@ -8547,7 +8779,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:3">
       <c r="A431" t="s">
         <v>443</v>
       </c>
@@ -8558,7 +8790,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:3">
       <c r="A432" t="s">
         <v>485</v>
       </c>
@@ -8569,7 +8801,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:3">
       <c r="A433" t="s">
         <v>442</v>
       </c>
@@ -8580,7 +8812,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:3">
       <c r="A434" t="s">
         <v>431</v>
       </c>
@@ -8591,7 +8823,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:3">
       <c r="A435" t="s">
         <v>398</v>
       </c>
@@ -8602,7 +8834,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:3">
       <c r="A436" t="s">
         <v>400</v>
       </c>
@@ -8613,7 +8845,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:3">
       <c r="A437" t="s">
         <v>394</v>
       </c>
@@ -8624,7 +8856,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:3">
       <c r="A438" t="s">
         <v>388</v>
       </c>
@@ -8635,7 +8867,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:3">
       <c r="A439" t="s">
         <v>433</v>
       </c>
@@ -8646,7 +8878,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:3">
       <c r="A440" t="s">
         <v>430</v>
       </c>
@@ -8657,7 +8889,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:3">
       <c r="A441" t="s">
         <v>372</v>
       </c>
@@ -8668,7 +8900,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:3">
       <c r="A442" t="s">
         <v>481</v>
       </c>
@@ -8679,7 +8911,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:3">
       <c r="A443" t="s">
         <v>387</v>
       </c>
@@ -8690,7 +8922,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:3">
       <c r="A444" t="s">
         <v>436</v>
       </c>
@@ -8701,7 +8933,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:3">
       <c r="A445" t="s">
         <v>489</v>
       </c>
@@ -8712,7 +8944,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:3">
       <c r="A446" t="s">
         <v>446</v>
       </c>
@@ -8723,7 +8955,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:3">
       <c r="A447" t="s">
         <v>488</v>
       </c>
@@ -8734,7 +8966,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:3">
       <c r="A448" t="s">
         <v>444</v>
       </c>
@@ -8745,7 +8977,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:3">
       <c r="A449" t="s">
         <v>429</v>
       </c>
@@ -8756,7 +8988,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:3">
       <c r="A450" t="s">
         <v>386</v>
       </c>
@@ -8767,7 +8999,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:3">
       <c r="A451" t="s">
         <v>471</v>
       </c>
@@ -8778,7 +9010,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:3">
       <c r="A452" t="s">
         <v>439</v>
       </c>
@@ -8789,7 +9021,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:3">
       <c r="A453" t="s">
         <v>392</v>
       </c>
@@ -8800,7 +9032,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:3">
       <c r="A454" t="s">
         <v>478</v>
       </c>
@@ -8811,7 +9043,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:3">
       <c r="A455" t="s">
         <v>435</v>
       </c>
@@ -8822,7 +9054,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:3">
       <c r="A456" t="s">
         <v>427</v>
       </c>
@@ -8833,7 +9065,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:3">
       <c r="A457" t="s">
         <v>475</v>
       </c>
@@ -8844,7 +9076,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:3">
       <c r="A458" t="s">
         <v>432</v>
       </c>
@@ -8855,7 +9087,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:3">
       <c r="A459" t="s">
         <v>477</v>
       </c>
@@ -8866,7 +9098,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:3">
       <c r="A460" t="s">
         <v>389</v>
       </c>
@@ -8877,7 +9109,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:3">
       <c r="A461" t="s">
         <v>474</v>
       </c>
@@ -8888,7 +9120,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:3">
       <c r="A462" t="s">
         <v>396</v>
       </c>
@@ -8899,7 +9131,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:3">
       <c r="A463" t="s">
         <v>414</v>
       </c>
@@ -8910,7 +9142,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:3">
       <c r="A464" t="s">
         <v>458</v>
       </c>
@@ -8921,7 +9153,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:3">
       <c r="A465" t="s">
         <v>440</v>
       </c>
@@ -8932,7 +9164,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:3">
       <c r="A466" t="s">
         <v>404</v>
       </c>
@@ -8943,7 +9175,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:3">
       <c r="A467" t="s">
         <v>490</v>
       </c>
@@ -8954,7 +9186,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:3">
       <c r="A468" t="s">
         <v>405</v>
       </c>
@@ -8965,7 +9197,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:3">
       <c r="A469" t="s">
         <v>492</v>
       </c>
@@ -8976,7 +9208,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:3">
       <c r="A470" t="s">
         <v>407</v>
       </c>
@@ -8987,7 +9219,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:3">
       <c r="A471" t="s">
         <v>402</v>
       </c>
@@ -8998,7 +9230,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:3">
       <c r="A472" t="s">
         <v>409</v>
       </c>
@@ -9009,7 +9241,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:3">
       <c r="A473" t="s">
         <v>371</v>
       </c>
@@ -9020,7 +9252,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:3">
       <c r="A474" t="s">
         <v>411</v>
       </c>
@@ -9031,7 +9263,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:3">
       <c r="A475" t="s">
         <v>416</v>
       </c>
@@ -9042,7 +9274,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:3">
       <c r="A476" t="s">
         <v>473</v>
       </c>
@@ -9053,7 +9285,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:3">
       <c r="A477" t="s">
         <v>375</v>
       </c>
@@ -9064,7 +9296,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:3">
       <c r="A478" t="s">
         <v>418</v>
       </c>
@@ -9075,7 +9307,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:3">
       <c r="A479" t="s">
         <v>428</v>
       </c>
@@ -9086,7 +9318,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:3">
       <c r="A480" t="s">
         <v>382</v>
       </c>
@@ -9097,7 +9329,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:3">
       <c r="A481" t="s">
         <v>483</v>
       </c>
@@ -9108,7 +9340,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:3">
       <c r="A482" t="s">
         <v>451</v>
       </c>
@@ -9119,7 +9351,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:3">
       <c r="A483" t="s">
         <v>448</v>
       </c>
@@ -9130,7 +9362,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:3">
       <c r="A484" t="s">
         <v>450</v>
       </c>
@@ -9141,7 +9373,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:3">
       <c r="A485" t="s">
         <v>494</v>
       </c>
@@ -9152,7 +9384,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:3">
       <c r="A486" t="s">
         <v>472</v>
       </c>
@@ -9163,7 +9395,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:3">
       <c r="A487" t="s">
         <v>496</v>
       </c>
@@ -9174,7 +9406,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:3">
       <c r="A488" t="s">
         <v>463</v>
       </c>
@@ -9185,7 +9417,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:3">
       <c r="A489" t="s">
         <v>495</v>
       </c>
@@ -9196,7 +9428,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:3">
       <c r="A490" t="s">
         <v>452</v>
       </c>
@@ -9207,7 +9439,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:3">
       <c r="A491" t="s">
         <v>393</v>
       </c>
@@ -9218,7 +9450,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:3">
       <c r="A492" t="s">
         <v>415</v>
       </c>
@@ -9229,7 +9461,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:3">
       <c r="A493" t="s">
         <v>460</v>
       </c>
@@ -9240,7 +9472,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:3">
       <c r="A494" t="s">
         <v>390</v>
       </c>
@@ -9251,7 +9483,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:3">
       <c r="A495" t="s">
         <v>417</v>
       </c>
@@ -9262,7 +9494,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:3">
       <c r="A496" t="s">
         <v>516</v>
       </c>
@@ -9273,7 +9505,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:3">
       <c r="A497" t="s">
         <v>509</v>
       </c>
@@ -9284,7 +9516,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:3">
       <c r="A498" t="s">
         <v>501</v>
       </c>
@@ -9295,7 +9527,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:3">
       <c r="A499" t="s">
         <v>500</v>
       </c>
@@ -9306,7 +9538,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:3">
       <c r="A500" t="s">
         <v>507</v>
       </c>
@@ -9317,7 +9549,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:3">
       <c r="A501" t="s">
         <v>515</v>
       </c>
@@ -9328,7 +9560,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:3">
       <c r="A502" t="s">
         <v>506</v>
       </c>
@@ -9339,7 +9571,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:3">
       <c r="A503" t="s">
         <v>519</v>
       </c>
@@ -9350,7 +9582,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:3">
       <c r="A504" t="s">
         <v>504</v>
       </c>
@@ -9361,7 +9593,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:3">
       <c r="A505" t="s">
         <v>518</v>
       </c>
@@ -9372,7 +9604,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:3">
       <c r="A506" t="s">
         <v>522</v>
       </c>
@@ -9383,7 +9615,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:3">
       <c r="A507" t="s">
         <v>512</v>
       </c>
@@ -9394,7 +9626,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:3">
       <c r="A508" t="s">
         <v>510</v>
       </c>
@@ -9405,7 +9637,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:3">
       <c r="A509" t="s">
         <v>517</v>
       </c>
@@ -9416,7 +9648,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:3">
       <c r="A510" t="s">
         <v>502</v>
       </c>
@@ -9427,7 +9659,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:3">
       <c r="A511" t="s">
         <v>511</v>
       </c>
@@ -9438,7 +9670,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:3">
       <c r="A512" t="s">
         <v>503</v>
       </c>
@@ -9449,7 +9681,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:5">
       <c r="A513" t="s">
         <v>521</v>
       </c>
@@ -9460,7 +9692,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:5">
       <c r="A514" t="s">
         <v>508</v>
       </c>
@@ -9471,7 +9703,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:5">
       <c r="A515" t="s">
         <v>499</v>
       </c>
@@ -9482,7 +9714,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:5">
       <c r="A516" t="s">
         <v>520</v>
       </c>
@@ -9493,7 +9725,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:5">
       <c r="A517" t="s">
         <v>505</v>
       </c>
@@ -9504,7 +9736,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:5">
       <c r="A518" t="s">
         <v>513</v>
       </c>
@@ -9515,7 +9747,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:5">
       <c r="A519" t="s">
         <v>514</v>
       </c>
@@ -9526,7 +9758,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:5">
       <c r="A520" t="s">
         <v>561</v>
       </c>
@@ -9543,7 +9775,7 @@
         <v>42856</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:5">
       <c r="A521" t="s">
         <v>563</v>
       </c>
@@ -9560,7 +9792,7 @@
         <v>42857</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:5">
       <c r="A522" t="s">
         <v>564</v>
       </c>
@@ -9577,7 +9809,7 @@
         <v>42858</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:5">
       <c r="A523" t="s">
         <v>565</v>
       </c>
@@ -9594,7 +9826,7 @@
         <v>42859</v>
       </c>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:5">
       <c r="A524" t="s">
         <v>566</v>
       </c>
@@ -9611,7 +9843,7 @@
         <v>42860</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:5">
       <c r="A525" t="s">
         <v>567</v>
       </c>
@@ -9628,7 +9860,7 @@
         <v>42861</v>
       </c>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:5">
       <c r="A526" t="s">
         <v>568</v>
       </c>
@@ -9645,7 +9877,7 @@
         <v>42862</v>
       </c>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:5">
       <c r="A527" t="s">
         <v>569</v>
       </c>
@@ -9662,7 +9894,7 @@
         <v>42863</v>
       </c>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:5">
       <c r="A528" t="s">
         <v>570</v>
       </c>
@@ -9676,10 +9908,10 @@
         <v>528</v>
       </c>
       <c r="E528" s="4">
-        <v>42864</v>
-      </c>
-    </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42863</v>
+      </c>
+    </row>
+    <row r="529" spans="1:6">
       <c r="A529" t="s">
         <v>571</v>
       </c>
@@ -9693,10 +9925,10 @@
         <v>528</v>
       </c>
       <c r="E529" s="4">
-        <v>42865</v>
-      </c>
-    </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42864</v>
+      </c>
+    </row>
+    <row r="530" spans="1:6">
       <c r="A530" t="s">
         <v>573</v>
       </c>
@@ -9710,10 +9942,10 @@
         <v>528</v>
       </c>
       <c r="E530" s="4">
-        <v>42866</v>
-      </c>
-    </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42864</v>
+      </c>
+    </row>
+    <row r="531" spans="1:6">
       <c r="A531" t="s">
         <v>574</v>
       </c>
@@ -9727,10 +9959,10 @@
         <v>528</v>
       </c>
       <c r="E531" s="4">
-        <v>42867</v>
-      </c>
-    </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42865</v>
+      </c>
+    </row>
+    <row r="532" spans="1:6">
       <c r="A532" t="s">
         <v>575</v>
       </c>
@@ -9744,10 +9976,10 @@
         <v>528</v>
       </c>
       <c r="E532" s="4">
-        <v>42868</v>
-      </c>
-    </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42866</v>
+      </c>
+    </row>
+    <row r="533" spans="1:6">
       <c r="A533" t="s">
         <v>576</v>
       </c>
@@ -9761,10 +9993,10 @@
         <v>528</v>
       </c>
       <c r="E533" s="4">
-        <v>42869</v>
-      </c>
-    </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42867</v>
+      </c>
+    </row>
+    <row r="534" spans="1:6">
       <c r="A534" t="s">
         <v>577</v>
       </c>
@@ -9778,10 +10010,10 @@
         <v>528</v>
       </c>
       <c r="E534" s="4">
-        <v>42870</v>
-      </c>
-    </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42868</v>
+      </c>
+    </row>
+    <row r="535" spans="1:6">
       <c r="A535" t="s">
         <v>578</v>
       </c>
@@ -9795,10 +10027,10 @@
         <v>528</v>
       </c>
       <c r="E535" s="4">
-        <v>42871</v>
-      </c>
-    </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42869</v>
+      </c>
+    </row>
+    <row r="536" spans="1:6">
       <c r="A536" t="s">
         <v>579</v>
       </c>
@@ -9812,10 +10044,10 @@
         <v>528</v>
       </c>
       <c r="E536" s="4">
-        <v>42872</v>
-      </c>
-    </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42870</v>
+      </c>
+    </row>
+    <row r="537" spans="1:6">
       <c r="A537" t="s">
         <v>580</v>
       </c>
@@ -9829,10 +10061,10 @@
         <v>528</v>
       </c>
       <c r="E537" s="4">
-        <v>42873</v>
-      </c>
-    </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42871</v>
+      </c>
+    </row>
+    <row r="538" spans="1:6">
       <c r="A538" t="s">
         <v>581</v>
       </c>
@@ -9846,10 +10078,10 @@
         <v>528</v>
       </c>
       <c r="E538" s="4">
-        <v>42874</v>
-      </c>
-    </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42872</v>
+      </c>
+    </row>
+    <row r="539" spans="1:6">
       <c r="A539" t="s">
         <v>582</v>
       </c>
@@ -9863,10 +10095,10 @@
         <v>528</v>
       </c>
       <c r="E539" s="4">
-        <v>42875</v>
-      </c>
-    </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42872</v>
+      </c>
+    </row>
+    <row r="540" spans="1:6">
       <c r="A540" t="s">
         <v>583</v>
       </c>
@@ -9880,10 +10112,10 @@
         <v>528</v>
       </c>
       <c r="E540" s="4">
-        <v>42876</v>
-      </c>
-    </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42873</v>
+      </c>
+    </row>
+    <row r="541" spans="1:6">
       <c r="A541" t="s">
         <v>585</v>
       </c>
@@ -9897,10 +10129,10 @@
         <v>528</v>
       </c>
       <c r="E541" s="4">
-        <v>42877</v>
-      </c>
-    </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42873</v>
+      </c>
+    </row>
+    <row r="542" spans="1:6">
       <c r="A542" t="s">
         <v>586</v>
       </c>
@@ -9914,10 +10146,11 @@
         <v>528</v>
       </c>
       <c r="E542" s="4">
-        <v>42878</v>
-      </c>
-    </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42874</v>
+      </c>
+      <c r="F542" s="4"/>
+    </row>
+    <row r="543" spans="1:6">
       <c r="A543" t="s">
         <v>587</v>
       </c>
@@ -9931,10 +10164,11 @@
         <v>528</v>
       </c>
       <c r="E543" s="4">
-        <v>42879</v>
-      </c>
-    </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42875</v>
+      </c>
+      <c r="F543" s="4"/>
+    </row>
+    <row r="544" spans="1:6">
       <c r="A544" t="s">
         <v>588</v>
       </c>
@@ -9948,10 +10182,11 @@
         <v>528</v>
       </c>
       <c r="E544" s="4">
-        <v>42880</v>
-      </c>
-    </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42876</v>
+      </c>
+      <c r="F544" s="4"/>
+    </row>
+    <row r="545" spans="1:6">
       <c r="A545" t="s">
         <v>589</v>
       </c>
@@ -9965,10 +10200,11 @@
         <v>528</v>
       </c>
       <c r="E545" s="4">
-        <v>42881</v>
-      </c>
-    </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42877</v>
+      </c>
+      <c r="F545" s="4"/>
+    </row>
+    <row r="546" spans="1:6">
       <c r="A546" t="s">
         <v>590</v>
       </c>
@@ -9982,10 +10218,11 @@
         <v>528</v>
       </c>
       <c r="E546" s="4">
-        <v>42882</v>
-      </c>
-    </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42878</v>
+      </c>
+      <c r="F546" s="4"/>
+    </row>
+    <row r="547" spans="1:6">
       <c r="A547" t="s">
         <v>591</v>
       </c>
@@ -9999,10 +10236,11 @@
         <v>528</v>
       </c>
       <c r="E547" s="4">
-        <v>42883</v>
-      </c>
-    </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42878</v>
+      </c>
+      <c r="F547" s="4"/>
+    </row>
+    <row r="548" spans="1:6">
       <c r="A548" t="s">
         <v>592</v>
       </c>
@@ -10016,10 +10254,11 @@
         <v>528</v>
       </c>
       <c r="E548" s="4">
-        <v>42884</v>
-      </c>
-    </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42879</v>
+      </c>
+      <c r="F548" s="4"/>
+    </row>
+    <row r="549" spans="1:6">
       <c r="A549" t="s">
         <v>594</v>
       </c>
@@ -10033,10 +10272,11 @@
         <v>528</v>
       </c>
       <c r="E549" s="4">
-        <v>42885</v>
-      </c>
-    </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42879</v>
+      </c>
+      <c r="F549" s="4"/>
+    </row>
+    <row r="550" spans="1:6">
       <c r="A550" t="s">
         <v>595</v>
       </c>
@@ -10050,10 +10290,11 @@
         <v>528</v>
       </c>
       <c r="E550" s="4">
-        <v>42886</v>
-      </c>
-    </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42880</v>
+      </c>
+      <c r="F550" s="4"/>
+    </row>
+    <row r="551" spans="1:6">
       <c r="A551" t="s">
         <v>596</v>
       </c>
@@ -10067,10 +10308,11 @@
         <v>528</v>
       </c>
       <c r="E551" s="4">
-        <v>42887</v>
-      </c>
-    </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42881</v>
+      </c>
+      <c r="F551" s="4"/>
+    </row>
+    <row r="552" spans="1:6">
       <c r="A552" t="s">
         <v>597</v>
       </c>
@@ -10084,10 +10326,11 @@
         <v>528</v>
       </c>
       <c r="E552" s="4">
-        <v>42888</v>
-      </c>
-    </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42882</v>
+      </c>
+      <c r="F552" s="4"/>
+    </row>
+    <row r="553" spans="1:6">
       <c r="A553" t="s">
         <v>598</v>
       </c>
@@ -10101,10 +10344,11 @@
         <v>528</v>
       </c>
       <c r="E553" s="4">
-        <v>42889</v>
-      </c>
-    </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42883</v>
+      </c>
+      <c r="F553" s="4"/>
+    </row>
+    <row r="554" spans="1:6">
       <c r="A554" t="s">
         <v>599</v>
       </c>
@@ -10118,10 +10362,11 @@
         <v>528</v>
       </c>
       <c r="E554" s="4">
-        <v>42890</v>
-      </c>
-    </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42884</v>
+      </c>
+      <c r="F554" s="4"/>
+    </row>
+    <row r="555" spans="1:6">
       <c r="A555" t="s">
         <v>600</v>
       </c>
@@ -10135,10 +10380,11 @@
         <v>528</v>
       </c>
       <c r="E555" s="4">
-        <v>42891</v>
-      </c>
-    </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42885</v>
+      </c>
+      <c r="F555" s="4"/>
+    </row>
+    <row r="556" spans="1:6">
       <c r="A556" t="s">
         <v>601</v>
       </c>
@@ -10152,10 +10398,11 @@
         <v>528</v>
       </c>
       <c r="E556" s="4">
-        <v>42892</v>
-      </c>
-    </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42885</v>
+      </c>
+      <c r="F556" s="4"/>
+    </row>
+    <row r="557" spans="1:6">
       <c r="A557" t="s">
         <v>602</v>
       </c>
@@ -10169,10 +10416,11 @@
         <v>528</v>
       </c>
       <c r="E557" s="4">
-        <v>42893</v>
-      </c>
-    </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42886</v>
+      </c>
+      <c r="F557" s="4"/>
+    </row>
+    <row r="558" spans="1:6">
       <c r="A558" t="s">
         <v>604</v>
       </c>
@@ -10186,10 +10434,11 @@
         <v>528</v>
       </c>
       <c r="E558" s="4">
-        <v>42894</v>
-      </c>
-    </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42886</v>
+      </c>
+      <c r="F558" s="4"/>
+    </row>
+    <row r="559" spans="1:6">
       <c r="A559" t="s">
         <v>605</v>
       </c>
@@ -10203,10 +10452,11 @@
         <v>528</v>
       </c>
       <c r="E559" s="4">
-        <v>42895</v>
-      </c>
-    </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42887</v>
+      </c>
+      <c r="F559" s="4"/>
+    </row>
+    <row r="560" spans="1:6">
       <c r="A560" t="s">
         <v>606</v>
       </c>
@@ -10220,10 +10470,11 @@
         <v>528</v>
       </c>
       <c r="E560" s="4">
-        <v>42896</v>
-      </c>
-    </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42888</v>
+      </c>
+      <c r="F560" s="4"/>
+    </row>
+    <row r="561" spans="1:6">
       <c r="A561" t="s">
         <v>607</v>
       </c>
@@ -10237,10 +10488,11 @@
         <v>528</v>
       </c>
       <c r="E561" s="4">
-        <v>42897</v>
-      </c>
-    </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42889</v>
+      </c>
+      <c r="F561" s="4"/>
+    </row>
+    <row r="562" spans="1:6">
       <c r="A562" t="s">
         <v>608</v>
       </c>
@@ -10254,10 +10506,11 @@
         <v>528</v>
       </c>
       <c r="E562" s="4">
-        <v>42898</v>
-      </c>
-    </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42890</v>
+      </c>
+      <c r="F562" s="4"/>
+    </row>
+    <row r="563" spans="1:6">
       <c r="A563" t="s">
         <v>609</v>
       </c>
@@ -10271,10 +10524,11 @@
         <v>528</v>
       </c>
       <c r="E563" s="4">
-        <v>42899</v>
-      </c>
-    </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42890</v>
+      </c>
+      <c r="F563" s="4"/>
+    </row>
+    <row r="564" spans="1:6">
       <c r="A564" t="s">
         <v>610</v>
       </c>
@@ -10288,10 +10542,11 @@
         <v>528</v>
       </c>
       <c r="E564" s="4">
-        <v>42900</v>
-      </c>
-    </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42891</v>
+      </c>
+      <c r="F564" s="4"/>
+    </row>
+    <row r="565" spans="1:6">
       <c r="A565" t="s">
         <v>612</v>
       </c>
@@ -10305,10 +10560,11 @@
         <v>528</v>
       </c>
       <c r="E565" s="4">
-        <v>42901</v>
-      </c>
-    </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42891</v>
+      </c>
+      <c r="F565" s="4"/>
+    </row>
+    <row r="566" spans="1:6">
       <c r="A566" t="s">
         <v>613</v>
       </c>
@@ -10322,10 +10578,11 @@
         <v>528</v>
       </c>
       <c r="E566" s="4">
-        <v>42902</v>
-      </c>
-    </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42892</v>
+      </c>
+      <c r="F566" s="4"/>
+    </row>
+    <row r="567" spans="1:6">
       <c r="A567" t="s">
         <v>614</v>
       </c>
@@ -10339,10 +10596,11 @@
         <v>528</v>
       </c>
       <c r="E567" s="4">
-        <v>42903</v>
-      </c>
-    </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42893</v>
+      </c>
+      <c r="F567" s="4"/>
+    </row>
+    <row r="568" spans="1:6">
       <c r="A568" t="s">
         <v>615</v>
       </c>
@@ -10356,10 +10614,11 @@
         <v>528</v>
       </c>
       <c r="E568" s="4">
-        <v>42904</v>
-      </c>
-    </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42894</v>
+      </c>
+      <c r="F568" s="4"/>
+    </row>
+    <row r="569" spans="1:6">
       <c r="A569" t="s">
         <v>616</v>
       </c>
@@ -10373,10 +10632,11 @@
         <v>528</v>
       </c>
       <c r="E569" s="4">
-        <v>42905</v>
-      </c>
-    </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42895</v>
+      </c>
+      <c r="F569" s="4"/>
+    </row>
+    <row r="570" spans="1:6">
       <c r="A570" t="s">
         <v>617</v>
       </c>
@@ -10390,10 +10650,11 @@
         <v>528</v>
       </c>
       <c r="E570" s="4">
-        <v>42906</v>
-      </c>
-    </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42896</v>
+      </c>
+      <c r="F570" s="4"/>
+    </row>
+    <row r="571" spans="1:6">
       <c r="A571" t="s">
         <v>618</v>
       </c>
@@ -10407,10 +10668,11 @@
         <v>528</v>
       </c>
       <c r="E571" s="4">
-        <v>42907</v>
-      </c>
-    </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42897</v>
+      </c>
+      <c r="F571" s="4"/>
+    </row>
+    <row r="572" spans="1:6">
       <c r="A572" t="s">
         <v>619</v>
       </c>
@@ -10424,10 +10686,11 @@
         <v>528</v>
       </c>
       <c r="E572" s="4">
-        <v>42908</v>
-      </c>
-    </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42898</v>
+      </c>
+      <c r="F572" s="4"/>
+    </row>
+    <row r="573" spans="1:6">
       <c r="A573" t="s">
         <v>620</v>
       </c>
@@ -10441,10 +10704,11 @@
         <v>528</v>
       </c>
       <c r="E573" s="4">
-        <v>42909</v>
-      </c>
-    </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42898</v>
+      </c>
+      <c r="F573" s="4"/>
+    </row>
+    <row r="574" spans="1:6">
       <c r="A574" t="s">
         <v>621</v>
       </c>
@@ -10458,10 +10722,11 @@
         <v>528</v>
       </c>
       <c r="E574" s="4">
-        <v>42910</v>
-      </c>
-    </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42899</v>
+      </c>
+      <c r="F574" s="4"/>
+    </row>
+    <row r="575" spans="1:6">
       <c r="A575" t="s">
         <v>623</v>
       </c>
@@ -10475,10 +10740,11 @@
         <v>528</v>
       </c>
       <c r="E575" s="4">
-        <v>42911</v>
-      </c>
-    </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42899</v>
+      </c>
+      <c r="F575" s="4"/>
+    </row>
+    <row r="576" spans="1:6">
       <c r="A576" t="s">
         <v>624</v>
       </c>
@@ -10492,10 +10758,11 @@
         <v>528</v>
       </c>
       <c r="E576" s="4">
-        <v>42912</v>
-      </c>
-    </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42900</v>
+      </c>
+      <c r="F576" s="4"/>
+    </row>
+    <row r="577" spans="1:6">
       <c r="A577" t="s">
         <v>625</v>
       </c>
@@ -10509,10 +10776,11 @@
         <v>528</v>
       </c>
       <c r="E577" s="4">
-        <v>42913</v>
-      </c>
-    </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42901</v>
+      </c>
+      <c r="F577" s="4"/>
+    </row>
+    <row r="578" spans="1:6">
       <c r="A578" t="s">
         <v>626</v>
       </c>
@@ -10526,10 +10794,11 @@
         <v>528</v>
       </c>
       <c r="E578" s="4">
-        <v>42914</v>
-      </c>
-    </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42902</v>
+      </c>
+      <c r="F578" s="4"/>
+    </row>
+    <row r="579" spans="1:6">
       <c r="A579" t="s">
         <v>627</v>
       </c>
@@ -10543,10 +10812,11 @@
         <v>528</v>
       </c>
       <c r="E579" s="4">
-        <v>42915</v>
-      </c>
-    </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42903</v>
+      </c>
+      <c r="F579" s="4"/>
+    </row>
+    <row r="580" spans="1:6">
       <c r="A580" t="s">
         <v>628</v>
       </c>
@@ -10560,10 +10830,11 @@
         <v>528</v>
       </c>
       <c r="E580" s="4">
-        <v>42916</v>
-      </c>
-    </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42904</v>
+      </c>
+      <c r="F580" s="4"/>
+    </row>
+    <row r="581" spans="1:6">
       <c r="A581" t="s">
         <v>629</v>
       </c>
@@ -10577,10 +10848,11 @@
         <v>528</v>
       </c>
       <c r="E581" s="4">
-        <v>42917</v>
-      </c>
-    </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42905</v>
+      </c>
+      <c r="F581" s="4"/>
+    </row>
+    <row r="582" spans="1:6">
       <c r="A582" t="s">
         <v>630</v>
       </c>
@@ -10594,10 +10866,12 @@
         <v>528</v>
       </c>
       <c r="E582" s="4">
-        <v>42918</v>
-      </c>
+        <v>42905</v>
+      </c>
+      <c r="F582" s="4"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G582"/>
   <sortState ref="A2:C316">
     <sortCondition ref="B2:B316"/>
     <sortCondition descending="1" ref="C2:C316"/>
@@ -10609,25 +10883,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B10"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>531</v>
       </c>
@@ -10635,7 +10909,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>532</v>
       </c>
@@ -10643,7 +10917,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>535</v>
       </c>
@@ -10651,7 +10925,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>538</v>
       </c>
@@ -10659,7 +10933,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>540</v>
       </c>
@@ -10667,7 +10941,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>542</v>
       </c>
@@ -10675,7 +10949,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>544</v>
       </c>
@@ -10683,7 +10957,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>632</v>
       </c>
@@ -10691,12 +10965,76 @@
         <v>633</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>634</v>
       </c>
       <c r="B10" t="s">
         <v>635</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>636</v>
+      </c>
+      <c r="B11" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>639</v>
+      </c>
+      <c r="B12" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>641</v>
+      </c>
+      <c r="B13" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>651</v>
+      </c>
+      <c r="B14" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>643</v>
+      </c>
+      <c r="B15" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>646</v>
+      </c>
+      <c r="B16" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>647</v>
+      </c>
+      <c r="B17" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>649</v>
+      </c>
+      <c r="B18" t="s">
+        <v>650</v>
       </c>
     </row>
   </sheetData>
@@ -10706,21 +11044,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="33.28515625" customWidth="1"/>
     <col min="2" max="2" width="34.85546875" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>547</v>
       </c>
@@ -10731,7 +11069,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>548</v>
       </c>
@@ -10742,7 +11080,7 @@
         <v>42855</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>548</v>
       </c>
@@ -10753,7 +11091,7 @@
         <v>42855</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
         <v>548</v>
       </c>
@@ -10764,7 +11102,7 @@
         <v>42856</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>548</v>
       </c>
@@ -10775,7 +11113,7 @@
         <v>42856</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>548</v>
       </c>
@@ -10783,7 +11121,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>548</v>
       </c>
@@ -10791,7 +11129,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>548</v>
       </c>
@@ -10799,7 +11137,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>548</v>
       </c>
@@ -10807,7 +11145,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>548</v>
       </c>
@@ -10815,7 +11153,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>548</v>
       </c>
@@ -10823,7 +11161,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>548</v>
       </c>

--- a/Planificare Engleza.xlsx
+++ b/Planificare Engleza.xlsx
@@ -2318,7 +2318,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2328,8 +2328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I582"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
-      <selection activeCell="C303" sqref="C303"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="159.85546875" defaultRowHeight="15"/>
@@ -2616,8 +2616,8 @@
       <c r="D13" t="s">
         <v>528</v>
       </c>
-      <c r="E13" s="4">
-        <v>42858</v>
+      <c r="E13" s="6">
+        <v>42857</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -2634,6 +2634,7 @@
         <v>528</v>
       </c>
       <c r="E14" s="4">
+        <f>E11+1</f>
         <v>42858</v>
       </c>
     </row>
@@ -2651,7 +2652,8 @@
         <v>528</v>
       </c>
       <c r="E15" s="4">
-        <v>42859</v>
+        <f>E12+1</f>
+        <v>42858</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -2668,7 +2670,8 @@
         <v>528</v>
       </c>
       <c r="E16" s="4">
-        <v>42859</v>
+        <f>E13+1</f>
+        <v>42858</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -2685,7 +2688,8 @@
         <v>528</v>
       </c>
       <c r="E17" s="4">
-        <v>42860</v>
+        <f t="shared" ref="E17:E80" si="0">E14+1</f>
+        <v>42859</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="1" customFormat="1">
@@ -2702,7 +2706,8 @@
         <v>528</v>
       </c>
       <c r="E18" s="4">
-        <v>42860</v>
+        <f t="shared" si="0"/>
+        <v>42859</v>
       </c>
       <c r="F18"/>
       <c r="G18" s="2"/>
@@ -2723,7 +2728,8 @@
         <v>528</v>
       </c>
       <c r="E19" s="4">
-        <v>42861</v>
+        <f t="shared" si="0"/>
+        <v>42859</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -2740,7 +2746,8 @@
         <v>528</v>
       </c>
       <c r="E20" s="4">
-        <v>42861</v>
+        <f t="shared" si="0"/>
+        <v>42860</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -2757,7 +2764,8 @@
         <v>528</v>
       </c>
       <c r="E21" s="4">
-        <v>42862</v>
+        <f t="shared" si="0"/>
+        <v>42860</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2774,7 +2782,8 @@
         <v>528</v>
       </c>
       <c r="E22" s="4">
-        <v>42862</v>
+        <f t="shared" si="0"/>
+        <v>42860</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2791,8 +2800,8 @@
         <v>528</v>
       </c>
       <c r="E23" s="4">
-        <f>E21+1</f>
-        <v>42863</v>
+        <f t="shared" si="0"/>
+        <v>42861</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2809,8 +2818,8 @@
         <v>528</v>
       </c>
       <c r="E24" s="4">
-        <f>E22+1</f>
-        <v>42863</v>
+        <f t="shared" si="0"/>
+        <v>42861</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2827,8 +2836,8 @@
         <v>528</v>
       </c>
       <c r="E25" s="4">
-        <f t="shared" ref="E25:E88" si="0">E23+1</f>
-        <v>42864</v>
+        <f t="shared" si="0"/>
+        <v>42861</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2846,7 +2855,7 @@
       </c>
       <c r="E26" s="4">
         <f t="shared" si="0"/>
-        <v>42864</v>
+        <v>42862</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2864,7 +2873,7 @@
       </c>
       <c r="E27" s="4">
         <f t="shared" si="0"/>
-        <v>42865</v>
+        <v>42862</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2882,7 +2891,7 @@
       </c>
       <c r="E28" s="4">
         <f t="shared" si="0"/>
-        <v>42865</v>
+        <v>42862</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2900,7 +2909,7 @@
       </c>
       <c r="E29" s="4">
         <f t="shared" si="0"/>
-        <v>42866</v>
+        <v>42863</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2918,7 +2927,7 @@
       </c>
       <c r="E30" s="4">
         <f t="shared" si="0"/>
-        <v>42866</v>
+        <v>42863</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2936,7 +2945,7 @@
       </c>
       <c r="E31" s="4">
         <f t="shared" si="0"/>
-        <v>42867</v>
+        <v>42863</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2954,7 +2963,7 @@
       </c>
       <c r="E32" s="4">
         <f t="shared" si="0"/>
-        <v>42867</v>
+        <v>42864</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2972,7 +2981,7 @@
       </c>
       <c r="E33" s="4">
         <f t="shared" si="0"/>
-        <v>42868</v>
+        <v>42864</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2990,7 +2999,7 @@
       </c>
       <c r="E34" s="4">
         <f t="shared" si="0"/>
-        <v>42868</v>
+        <v>42864</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3008,7 +3017,7 @@
       </c>
       <c r="E35" s="4">
         <f t="shared" si="0"/>
-        <v>42869</v>
+        <v>42865</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3026,7 +3035,7 @@
       </c>
       <c r="E36" s="4">
         <f t="shared" si="0"/>
-        <v>42869</v>
+        <v>42865</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3044,7 +3053,7 @@
       </c>
       <c r="E37" s="4">
         <f t="shared" si="0"/>
-        <v>42870</v>
+        <v>42865</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3062,7 +3071,7 @@
       </c>
       <c r="E38" s="4">
         <f t="shared" si="0"/>
-        <v>42870</v>
+        <v>42866</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3080,7 +3089,7 @@
       </c>
       <c r="E39" s="4">
         <f t="shared" si="0"/>
-        <v>42871</v>
+        <v>42866</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3098,7 +3107,7 @@
       </c>
       <c r="E40" s="4">
         <f t="shared" si="0"/>
-        <v>42871</v>
+        <v>42866</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3116,7 +3125,7 @@
       </c>
       <c r="E41" s="4">
         <f t="shared" si="0"/>
-        <v>42872</v>
+        <v>42867</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3134,7 +3143,7 @@
       </c>
       <c r="E42" s="4">
         <f t="shared" si="0"/>
-        <v>42872</v>
+        <v>42867</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3152,7 +3161,7 @@
       </c>
       <c r="E43" s="4">
         <f t="shared" si="0"/>
-        <v>42873</v>
+        <v>42867</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3170,7 +3179,7 @@
       </c>
       <c r="E44" s="4">
         <f t="shared" si="0"/>
-        <v>42873</v>
+        <v>42868</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3188,7 +3197,7 @@
       </c>
       <c r="E45" s="4">
         <f t="shared" si="0"/>
-        <v>42874</v>
+        <v>42868</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3206,7 +3215,7 @@
       </c>
       <c r="E46" s="4">
         <f t="shared" si="0"/>
-        <v>42874</v>
+        <v>42868</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3224,7 +3233,7 @@
       </c>
       <c r="E47" s="4">
         <f t="shared" si="0"/>
-        <v>42875</v>
+        <v>42869</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3242,7 +3251,7 @@
       </c>
       <c r="E48" s="4">
         <f t="shared" si="0"/>
-        <v>42875</v>
+        <v>42869</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -3260,7 +3269,7 @@
       </c>
       <c r="E49" s="4">
         <f t="shared" si="0"/>
-        <v>42876</v>
+        <v>42869</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -3278,7 +3287,7 @@
       </c>
       <c r="E50" s="4">
         <f t="shared" si="0"/>
-        <v>42876</v>
+        <v>42870</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -3296,7 +3305,7 @@
       </c>
       <c r="E51" s="4">
         <f t="shared" si="0"/>
-        <v>42877</v>
+        <v>42870</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -3314,7 +3323,7 @@
       </c>
       <c r="E52" s="4">
         <f t="shared" si="0"/>
-        <v>42877</v>
+        <v>42870</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -3332,7 +3341,7 @@
       </c>
       <c r="E53" s="4">
         <f t="shared" si="0"/>
-        <v>42878</v>
+        <v>42871</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -3350,7 +3359,7 @@
       </c>
       <c r="E54" s="4">
         <f t="shared" si="0"/>
-        <v>42878</v>
+        <v>42871</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -3368,7 +3377,7 @@
       </c>
       <c r="E55" s="4">
         <f t="shared" si="0"/>
-        <v>42879</v>
+        <v>42871</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -3386,7 +3395,7 @@
       </c>
       <c r="E56" s="4">
         <f t="shared" si="0"/>
-        <v>42879</v>
+        <v>42872</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -3404,7 +3413,7 @@
       </c>
       <c r="E57" s="4">
         <f t="shared" si="0"/>
-        <v>42880</v>
+        <v>42872</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -3422,7 +3431,7 @@
       </c>
       <c r="E58" s="4">
         <f t="shared" si="0"/>
-        <v>42880</v>
+        <v>42872</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -3440,7 +3449,7 @@
       </c>
       <c r="E59" s="4">
         <f t="shared" si="0"/>
-        <v>42881</v>
+        <v>42873</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -3458,7 +3467,7 @@
       </c>
       <c r="E60" s="4">
         <f t="shared" si="0"/>
-        <v>42881</v>
+        <v>42873</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -3476,7 +3485,7 @@
       </c>
       <c r="E61" s="4">
         <f t="shared" si="0"/>
-        <v>42882</v>
+        <v>42873</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -3494,7 +3503,7 @@
       </c>
       <c r="E62" s="4">
         <f t="shared" si="0"/>
-        <v>42882</v>
+        <v>42874</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -3512,7 +3521,7 @@
       </c>
       <c r="E63" s="4">
         <f t="shared" si="0"/>
-        <v>42883</v>
+        <v>42874</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="1" customFormat="1">
@@ -3530,7 +3539,7 @@
       </c>
       <c r="E64" s="4">
         <f t="shared" si="0"/>
-        <v>42883</v>
+        <v>42874</v>
       </c>
       <c r="F64"/>
       <c r="G64" s="2"/>
@@ -3552,7 +3561,7 @@
       </c>
       <c r="E65" s="4">
         <f t="shared" si="0"/>
-        <v>42884</v>
+        <v>42875</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3570,7 +3579,7 @@
       </c>
       <c r="E66" s="4">
         <f t="shared" si="0"/>
-        <v>42884</v>
+        <v>42875</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3588,7 +3597,7 @@
       </c>
       <c r="E67" s="4">
         <f t="shared" si="0"/>
-        <v>42885</v>
+        <v>42875</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3606,7 +3615,7 @@
       </c>
       <c r="E68" s="4">
         <f t="shared" si="0"/>
-        <v>42885</v>
+        <v>42876</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3624,7 +3633,7 @@
       </c>
       <c r="E69" s="4">
         <f t="shared" si="0"/>
-        <v>42886</v>
+        <v>42876</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3642,7 +3651,7 @@
       </c>
       <c r="E70" s="4">
         <f t="shared" si="0"/>
-        <v>42886</v>
+        <v>42876</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -3660,7 +3669,7 @@
       </c>
       <c r="E71" s="4">
         <f t="shared" si="0"/>
-        <v>42887</v>
+        <v>42877</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3678,7 +3687,7 @@
       </c>
       <c r="E72" s="4">
         <f t="shared" si="0"/>
-        <v>42887</v>
+        <v>42877</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3696,7 +3705,7 @@
       </c>
       <c r="E73" s="4">
         <f t="shared" si="0"/>
-        <v>42888</v>
+        <v>42877</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -3714,7 +3723,7 @@
       </c>
       <c r="E74" s="4">
         <f t="shared" si="0"/>
-        <v>42888</v>
+        <v>42878</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -3732,7 +3741,7 @@
       </c>
       <c r="E75" s="4">
         <f t="shared" si="0"/>
-        <v>42889</v>
+        <v>42878</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -3750,7 +3759,7 @@
       </c>
       <c r="E76" s="4">
         <f t="shared" si="0"/>
-        <v>42889</v>
+        <v>42878</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -3768,7 +3777,7 @@
       </c>
       <c r="E77" s="4">
         <f t="shared" si="0"/>
-        <v>42890</v>
+        <v>42879</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3786,7 +3795,7 @@
       </c>
       <c r="E78" s="4">
         <f t="shared" si="0"/>
-        <v>42890</v>
+        <v>42879</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -3804,7 +3813,7 @@
       </c>
       <c r="E79" s="4">
         <f t="shared" si="0"/>
-        <v>42891</v>
+        <v>42879</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3822,7 +3831,7 @@
       </c>
       <c r="E80" s="4">
         <f t="shared" si="0"/>
-        <v>42891</v>
+        <v>42880</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3839,8 +3848,8 @@
         <v>528</v>
       </c>
       <c r="E81" s="4">
-        <f t="shared" si="0"/>
-        <v>42892</v>
+        <f t="shared" ref="E81:E144" si="1">E78+1</f>
+        <v>42880</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3857,8 +3866,8 @@
         <v>528</v>
       </c>
       <c r="E82" s="4">
-        <f t="shared" si="0"/>
-        <v>42892</v>
+        <f t="shared" si="1"/>
+        <v>42880</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3875,8 +3884,8 @@
         <v>528</v>
       </c>
       <c r="E83" s="4">
-        <f t="shared" si="0"/>
-        <v>42893</v>
+        <f t="shared" si="1"/>
+        <v>42881</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3893,8 +3902,8 @@
         <v>528</v>
       </c>
       <c r="E84" s="4">
-        <f t="shared" si="0"/>
-        <v>42893</v>
+        <f t="shared" si="1"/>
+        <v>42881</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3911,8 +3920,8 @@
         <v>528</v>
       </c>
       <c r="E85" s="4">
-        <f t="shared" si="0"/>
-        <v>42894</v>
+        <f t="shared" si="1"/>
+        <v>42881</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3929,8 +3938,8 @@
         <v>528</v>
       </c>
       <c r="E86" s="4">
-        <f t="shared" si="0"/>
-        <v>42894</v>
+        <f t="shared" si="1"/>
+        <v>42882</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3947,8 +3956,8 @@
         <v>528</v>
       </c>
       <c r="E87" s="4">
-        <f t="shared" si="0"/>
-        <v>42895</v>
+        <f t="shared" si="1"/>
+        <v>42882</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3965,8 +3974,8 @@
         <v>528</v>
       </c>
       <c r="E88" s="4">
-        <f t="shared" si="0"/>
-        <v>42895</v>
+        <f t="shared" si="1"/>
+        <v>42882</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3983,8 +3992,8 @@
         <v>528</v>
       </c>
       <c r="E89" s="4">
-        <f t="shared" ref="E89:E93" si="1">E87+1</f>
-        <v>42896</v>
+        <f t="shared" si="1"/>
+        <v>42883</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -4002,7 +4011,7 @@
       </c>
       <c r="E90" s="4">
         <f t="shared" si="1"/>
-        <v>42896</v>
+        <v>42883</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -4020,7 +4029,7 @@
       </c>
       <c r="E91" s="4">
         <f t="shared" si="1"/>
-        <v>42897</v>
+        <v>42883</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -4038,7 +4047,7 @@
       </c>
       <c r="E92" s="4">
         <f t="shared" si="1"/>
-        <v>42897</v>
+        <v>42884</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -4056,7 +4065,7 @@
       </c>
       <c r="E93" s="4">
         <f t="shared" si="1"/>
-        <v>42898</v>
+        <v>42884</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -4073,8 +4082,8 @@
         <v>528</v>
       </c>
       <c r="E94" s="4">
-        <f>E92+1</f>
-        <v>42898</v>
+        <f t="shared" si="1"/>
+        <v>42884</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -4091,8 +4100,8 @@
         <v>528</v>
       </c>
       <c r="E95" s="4">
-        <f t="shared" ref="E95:E118" si="2">E93+1</f>
-        <v>42899</v>
+        <f t="shared" si="1"/>
+        <v>42885</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -4109,8 +4118,8 @@
         <v>528</v>
       </c>
       <c r="E96" s="4">
-        <f t="shared" si="2"/>
-        <v>42899</v>
+        <f t="shared" si="1"/>
+        <v>42885</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -4127,8 +4136,8 @@
         <v>528</v>
       </c>
       <c r="E97" s="4">
-        <f t="shared" si="2"/>
-        <v>42900</v>
+        <f t="shared" si="1"/>
+        <v>42885</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -4145,8 +4154,8 @@
         <v>528</v>
       </c>
       <c r="E98" s="4">
-        <f t="shared" si="2"/>
-        <v>42900</v>
+        <f t="shared" si="1"/>
+        <v>42886</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -4163,8 +4172,8 @@
         <v>528</v>
       </c>
       <c r="E99" s="4">
-        <f t="shared" si="2"/>
-        <v>42901</v>
+        <f t="shared" si="1"/>
+        <v>42886</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -4181,8 +4190,8 @@
         <v>528</v>
       </c>
       <c r="E100" s="4">
-        <f t="shared" si="2"/>
-        <v>42901</v>
+        <f t="shared" si="1"/>
+        <v>42886</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -4199,8 +4208,8 @@
         <v>528</v>
       </c>
       <c r="E101" s="4">
-        <f t="shared" si="2"/>
-        <v>42902</v>
+        <f t="shared" si="1"/>
+        <v>42887</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -4217,8 +4226,8 @@
         <v>528</v>
       </c>
       <c r="E102" s="4">
-        <f t="shared" si="2"/>
-        <v>42902</v>
+        <f t="shared" si="1"/>
+        <v>42887</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -4235,8 +4244,8 @@
         <v>528</v>
       </c>
       <c r="E103" s="4">
-        <f t="shared" si="2"/>
-        <v>42903</v>
+        <f t="shared" si="1"/>
+        <v>42887</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -4253,8 +4262,8 @@
         <v>528</v>
       </c>
       <c r="E104" s="4">
-        <f t="shared" si="2"/>
-        <v>42903</v>
+        <f t="shared" si="1"/>
+        <v>42888</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -4271,8 +4280,8 @@
         <v>528</v>
       </c>
       <c r="E105" s="4">
-        <f t="shared" si="2"/>
-        <v>42904</v>
+        <f t="shared" si="1"/>
+        <v>42888</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -4289,8 +4298,8 @@
         <v>528</v>
       </c>
       <c r="E106" s="4">
-        <f t="shared" si="2"/>
-        <v>42904</v>
+        <f t="shared" si="1"/>
+        <v>42888</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -4307,8 +4316,8 @@
         <v>528</v>
       </c>
       <c r="E107" s="4">
-        <f t="shared" si="2"/>
-        <v>42905</v>
+        <f t="shared" si="1"/>
+        <v>42889</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -4325,8 +4334,8 @@
         <v>528</v>
       </c>
       <c r="E108" s="4">
-        <f t="shared" si="2"/>
-        <v>42905</v>
+        <f t="shared" si="1"/>
+        <v>42889</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -4343,8 +4352,8 @@
         <v>528</v>
       </c>
       <c r="E109" s="4">
-        <f t="shared" si="2"/>
-        <v>42906</v>
+        <f t="shared" si="1"/>
+        <v>42889</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -4361,8 +4370,8 @@
         <v>528</v>
       </c>
       <c r="E110" s="4">
-        <f t="shared" si="2"/>
-        <v>42906</v>
+        <f t="shared" si="1"/>
+        <v>42890</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -4379,8 +4388,8 @@
         <v>528</v>
       </c>
       <c r="E111" s="4">
-        <f t="shared" si="2"/>
-        <v>42907</v>
+        <f t="shared" si="1"/>
+        <v>42890</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -4397,8 +4406,8 @@
         <v>528</v>
       </c>
       <c r="E112" s="4">
-        <f t="shared" si="2"/>
-        <v>42907</v>
+        <f t="shared" si="1"/>
+        <v>42890</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -4415,8 +4424,8 @@
         <v>528</v>
       </c>
       <c r="E113" s="4">
-        <f t="shared" si="2"/>
-        <v>42908</v>
+        <f t="shared" si="1"/>
+        <v>42891</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -4433,8 +4442,8 @@
         <v>528</v>
       </c>
       <c r="E114" s="4">
-        <f t="shared" si="2"/>
-        <v>42908</v>
+        <f t="shared" si="1"/>
+        <v>42891</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -4451,8 +4460,8 @@
         <v>528</v>
       </c>
       <c r="E115" s="4">
-        <f t="shared" si="2"/>
-        <v>42909</v>
+        <f t="shared" si="1"/>
+        <v>42891</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -4469,8 +4478,8 @@
         <v>528</v>
       </c>
       <c r="E116" s="4">
-        <f t="shared" si="2"/>
-        <v>42909</v>
+        <f t="shared" si="1"/>
+        <v>42892</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -4487,8 +4496,8 @@
         <v>528</v>
       </c>
       <c r="E117" s="4">
-        <f t="shared" si="2"/>
-        <v>42910</v>
+        <f t="shared" si="1"/>
+        <v>42892</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -4505,8 +4514,8 @@
         <v>528</v>
       </c>
       <c r="E118" s="4">
-        <f t="shared" si="2"/>
-        <v>42910</v>
+        <f t="shared" si="1"/>
+        <v>42892</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -4523,8 +4532,8 @@
         <v>528</v>
       </c>
       <c r="E119" s="4">
-        <f>E117+1</f>
-        <v>42911</v>
+        <f t="shared" si="1"/>
+        <v>42893</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -4541,8 +4550,8 @@
         <v>528</v>
       </c>
       <c r="E120" s="4">
-        <f t="shared" ref="E120:E143" si="3">E118+1</f>
-        <v>42911</v>
+        <f t="shared" si="1"/>
+        <v>42893</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -4559,8 +4568,8 @@
         <v>528</v>
       </c>
       <c r="E121" s="4">
-        <f t="shared" si="3"/>
-        <v>42912</v>
+        <f t="shared" si="1"/>
+        <v>42893</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -4577,8 +4586,8 @@
         <v>528</v>
       </c>
       <c r="E122" s="4">
-        <f t="shared" si="3"/>
-        <v>42912</v>
+        <f t="shared" si="1"/>
+        <v>42894</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -4595,8 +4604,8 @@
         <v>528</v>
       </c>
       <c r="E123" s="4">
-        <f t="shared" si="3"/>
-        <v>42913</v>
+        <f t="shared" si="1"/>
+        <v>42894</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -4613,8 +4622,8 @@
         <v>528</v>
       </c>
       <c r="E124" s="4">
-        <f t="shared" si="3"/>
-        <v>42913</v>
+        <f t="shared" si="1"/>
+        <v>42894</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -4631,8 +4640,8 @@
         <v>528</v>
       </c>
       <c r="E125" s="4">
-        <f t="shared" si="3"/>
-        <v>42914</v>
+        <f t="shared" si="1"/>
+        <v>42895</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -4649,8 +4658,8 @@
         <v>528</v>
       </c>
       <c r="E126" s="4">
-        <f t="shared" si="3"/>
-        <v>42914</v>
+        <f t="shared" si="1"/>
+        <v>42895</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -4667,8 +4676,8 @@
         <v>528</v>
       </c>
       <c r="E127" s="4">
-        <f t="shared" si="3"/>
-        <v>42915</v>
+        <f t="shared" si="1"/>
+        <v>42895</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -4685,8 +4694,8 @@
         <v>528</v>
       </c>
       <c r="E128" s="4">
-        <f t="shared" si="3"/>
-        <v>42915</v>
+        <f t="shared" si="1"/>
+        <v>42896</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -4703,8 +4712,8 @@
         <v>528</v>
       </c>
       <c r="E129" s="4">
-        <f t="shared" si="3"/>
-        <v>42916</v>
+        <f t="shared" si="1"/>
+        <v>42896</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -4721,8 +4730,8 @@
         <v>528</v>
       </c>
       <c r="E130" s="4">
-        <f t="shared" si="3"/>
-        <v>42916</v>
+        <f t="shared" si="1"/>
+        <v>42896</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -4739,8 +4748,8 @@
         <v>528</v>
       </c>
       <c r="E131" s="4">
-        <f t="shared" si="3"/>
-        <v>42917</v>
+        <f t="shared" si="1"/>
+        <v>42897</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -4757,8 +4766,8 @@
         <v>528</v>
       </c>
       <c r="E132" s="4">
-        <f t="shared" si="3"/>
-        <v>42917</v>
+        <f t="shared" si="1"/>
+        <v>42897</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -4775,8 +4784,8 @@
         <v>528</v>
       </c>
       <c r="E133" s="4">
-        <f t="shared" si="3"/>
-        <v>42918</v>
+        <f t="shared" si="1"/>
+        <v>42897</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -4793,8 +4802,8 @@
         <v>528</v>
       </c>
       <c r="E134" s="4">
-        <f t="shared" si="3"/>
-        <v>42918</v>
+        <f t="shared" si="1"/>
+        <v>42898</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -4811,8 +4820,8 @@
         <v>528</v>
       </c>
       <c r="E135" s="4">
-        <f t="shared" si="3"/>
-        <v>42919</v>
+        <f t="shared" si="1"/>
+        <v>42898</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -4829,8 +4838,8 @@
         <v>528</v>
       </c>
       <c r="E136" s="4">
-        <f t="shared" si="3"/>
-        <v>42919</v>
+        <f t="shared" si="1"/>
+        <v>42898</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -4847,8 +4856,8 @@
         <v>528</v>
       </c>
       <c r="E137" s="4">
-        <f t="shared" si="3"/>
-        <v>42920</v>
+        <f t="shared" si="1"/>
+        <v>42899</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -4865,8 +4874,8 @@
         <v>528</v>
       </c>
       <c r="E138" s="4">
-        <f t="shared" si="3"/>
-        <v>42920</v>
+        <f t="shared" si="1"/>
+        <v>42899</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -4883,8 +4892,8 @@
         <v>528</v>
       </c>
       <c r="E139" s="4">
-        <f t="shared" si="3"/>
-        <v>42921</v>
+        <f t="shared" si="1"/>
+        <v>42899</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -4901,8 +4910,8 @@
         <v>528</v>
       </c>
       <c r="E140" s="4">
-        <f t="shared" si="3"/>
-        <v>42921</v>
+        <f t="shared" si="1"/>
+        <v>42900</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -4919,8 +4928,8 @@
         <v>528</v>
       </c>
       <c r="E141" s="4">
-        <f t="shared" si="3"/>
-        <v>42922</v>
+        <f t="shared" si="1"/>
+        <v>42900</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -4937,8 +4946,8 @@
         <v>528</v>
       </c>
       <c r="E142" s="4">
-        <f t="shared" si="3"/>
-        <v>42922</v>
+        <f t="shared" si="1"/>
+        <v>42900</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -4955,8 +4964,8 @@
         <v>528</v>
       </c>
       <c r="E143" s="4">
-        <f t="shared" si="3"/>
-        <v>42923</v>
+        <f t="shared" si="1"/>
+        <v>42901</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -4973,8 +4982,8 @@
         <v>528</v>
       </c>
       <c r="E144" s="4">
-        <f>E142+1</f>
-        <v>42923</v>
+        <f t="shared" si="1"/>
+        <v>42901</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -4991,8 +5000,8 @@
         <v>528</v>
       </c>
       <c r="E145" s="4">
-        <f t="shared" ref="E145:E159" si="4">E143+1</f>
-        <v>42924</v>
+        <f t="shared" ref="E145:E208" si="2">E142+1</f>
+        <v>42901</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -5009,8 +5018,8 @@
         <v>528</v>
       </c>
       <c r="E146" s="4">
-        <f t="shared" si="4"/>
-        <v>42924</v>
+        <f t="shared" si="2"/>
+        <v>42902</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -5027,8 +5036,8 @@
         <v>528</v>
       </c>
       <c r="E147" s="4">
-        <f t="shared" si="4"/>
-        <v>42925</v>
+        <f t="shared" si="2"/>
+        <v>42902</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -5045,8 +5054,8 @@
         <v>528</v>
       </c>
       <c r="E148" s="4">
-        <f t="shared" si="4"/>
-        <v>42925</v>
+        <f t="shared" si="2"/>
+        <v>42902</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -5063,8 +5072,8 @@
         <v>528</v>
       </c>
       <c r="E149" s="4">
-        <f t="shared" si="4"/>
-        <v>42926</v>
+        <f t="shared" si="2"/>
+        <v>42903</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -5081,8 +5090,8 @@
         <v>528</v>
       </c>
       <c r="E150" s="4">
-        <f t="shared" si="4"/>
-        <v>42926</v>
+        <f t="shared" si="2"/>
+        <v>42903</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -5099,8 +5108,8 @@
         <v>528</v>
       </c>
       <c r="E151" s="4">
-        <f t="shared" si="4"/>
-        <v>42927</v>
+        <f t="shared" si="2"/>
+        <v>42903</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -5117,8 +5126,8 @@
         <v>528</v>
       </c>
       <c r="E152" s="4">
-        <f t="shared" si="4"/>
-        <v>42927</v>
+        <f t="shared" si="2"/>
+        <v>42904</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -5135,8 +5144,8 @@
         <v>528</v>
       </c>
       <c r="E153" s="4">
-        <f t="shared" si="4"/>
-        <v>42928</v>
+        <f t="shared" si="2"/>
+        <v>42904</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -5153,8 +5162,8 @@
         <v>528</v>
       </c>
       <c r="E154" s="4">
-        <f t="shared" si="4"/>
-        <v>42928</v>
+        <f t="shared" si="2"/>
+        <v>42904</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -5171,8 +5180,8 @@
         <v>528</v>
       </c>
       <c r="E155" s="4">
-        <f t="shared" si="4"/>
-        <v>42929</v>
+        <f t="shared" si="2"/>
+        <v>42905</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -5189,8 +5198,8 @@
         <v>528</v>
       </c>
       <c r="E156" s="4">
-        <f t="shared" si="4"/>
-        <v>42929</v>
+        <f t="shared" si="2"/>
+        <v>42905</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -5207,8 +5216,8 @@
         <v>528</v>
       </c>
       <c r="E157" s="4">
-        <f t="shared" si="4"/>
-        <v>42930</v>
+        <f t="shared" si="2"/>
+        <v>42905</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -5225,8 +5234,8 @@
         <v>528</v>
       </c>
       <c r="E158" s="4">
-        <f t="shared" si="4"/>
-        <v>42930</v>
+        <f t="shared" si="2"/>
+        <v>42906</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -5243,8 +5252,8 @@
         <v>528</v>
       </c>
       <c r="E159" s="4">
-        <f t="shared" si="4"/>
-        <v>42931</v>
+        <f t="shared" si="2"/>
+        <v>42906</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -5261,8 +5270,8 @@
         <v>528</v>
       </c>
       <c r="E160" s="4">
-        <f>E158+1</f>
-        <v>42931</v>
+        <f t="shared" si="2"/>
+        <v>42906</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -5279,8 +5288,8 @@
         <v>528</v>
       </c>
       <c r="E161" s="4">
-        <f t="shared" ref="E161:E162" si="5">E159+1</f>
-        <v>42932</v>
+        <f t="shared" si="2"/>
+        <v>42907</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -5297,8 +5306,8 @@
         <v>528</v>
       </c>
       <c r="E162" s="4">
-        <f t="shared" si="5"/>
-        <v>42932</v>
+        <f t="shared" si="2"/>
+        <v>42907</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -5315,8 +5324,8 @@
         <v>528</v>
       </c>
       <c r="E163" s="4">
-        <f>E161+1</f>
-        <v>42933</v>
+        <f t="shared" si="2"/>
+        <v>42907</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -5333,8 +5342,8 @@
         <v>528</v>
       </c>
       <c r="E164" s="4">
-        <f t="shared" ref="E164" si="6">E162+1</f>
-        <v>42933</v>
+        <f t="shared" si="2"/>
+        <v>42908</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -5347,6 +5356,10 @@
       <c r="C165" t="s">
         <v>77</v>
       </c>
+      <c r="E165" s="4">
+        <f t="shared" si="2"/>
+        <v>42908</v>
+      </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" t="s">
@@ -5358,6 +5371,10 @@
       <c r="C166" t="s">
         <v>77</v>
       </c>
+      <c r="E166" s="4">
+        <f t="shared" si="2"/>
+        <v>42908</v>
+      </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" t="s">
@@ -5369,6 +5386,10 @@
       <c r="C167" t="s">
         <v>77</v>
       </c>
+      <c r="E167" s="4">
+        <f t="shared" si="2"/>
+        <v>42909</v>
+      </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" t="s">
@@ -5380,6 +5401,10 @@
       <c r="C168" t="s">
         <v>77</v>
       </c>
+      <c r="E168" s="4">
+        <f t="shared" si="2"/>
+        <v>42909</v>
+      </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" t="s">
@@ -5391,6 +5416,10 @@
       <c r="C169" t="s">
         <v>77</v>
       </c>
+      <c r="E169" s="4">
+        <f t="shared" si="2"/>
+        <v>42909</v>
+      </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" t="s">
@@ -5402,6 +5431,10 @@
       <c r="C170" t="s">
         <v>77</v>
       </c>
+      <c r="E170" s="4">
+        <f t="shared" si="2"/>
+        <v>42910</v>
+      </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" t="s">
@@ -5413,6 +5446,10 @@
       <c r="C171" t="s">
         <v>77</v>
       </c>
+      <c r="E171" s="4">
+        <f t="shared" si="2"/>
+        <v>42910</v>
+      </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" t="s">
@@ -5424,6 +5461,10 @@
       <c r="C172" t="s">
         <v>77</v>
       </c>
+      <c r="E172" s="4">
+        <f t="shared" si="2"/>
+        <v>42910</v>
+      </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" t="s">
@@ -5435,6 +5476,10 @@
       <c r="C173" t="s">
         <v>77</v>
       </c>
+      <c r="E173" s="4">
+        <f t="shared" si="2"/>
+        <v>42911</v>
+      </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" t="s">
@@ -5446,6 +5491,10 @@
       <c r="C174" t="s">
         <v>77</v>
       </c>
+      <c r="E174" s="4">
+        <f t="shared" si="2"/>
+        <v>42911</v>
+      </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" t="s">
@@ -5457,6 +5506,10 @@
       <c r="C175" t="s">
         <v>77</v>
       </c>
+      <c r="E175" s="4">
+        <f t="shared" si="2"/>
+        <v>42911</v>
+      </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" t="s">
@@ -5468,8 +5521,12 @@
       <c r="C176" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="177" spans="1:3">
+      <c r="E176" s="4">
+        <f t="shared" si="2"/>
+        <v>42912</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
       <c r="A177" t="s">
         <v>172</v>
       </c>
@@ -5479,8 +5536,12 @@
       <c r="C177" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="178" spans="1:3">
+      <c r="E177" s="4">
+        <f t="shared" si="2"/>
+        <v>42912</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
       <c r="A178" t="s">
         <v>195</v>
       </c>
@@ -5490,8 +5551,12 @@
       <c r="C178" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="179" spans="1:3">
+      <c r="E178" s="4">
+        <f t="shared" si="2"/>
+        <v>42912</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
       <c r="A179" t="s">
         <v>132</v>
       </c>
@@ -5501,8 +5566,12 @@
       <c r="C179" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="180" spans="1:3">
+      <c r="E179" s="4">
+        <f t="shared" si="2"/>
+        <v>42913</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
       <c r="A180" t="s">
         <v>197</v>
       </c>
@@ -5512,8 +5581,12 @@
       <c r="C180" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="181" spans="1:3">
+      <c r="E180" s="4">
+        <f t="shared" si="2"/>
+        <v>42913</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
       <c r="A181" t="s">
         <v>144</v>
       </c>
@@ -5523,8 +5596,12 @@
       <c r="C181" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="182" spans="1:3">
+      <c r="E181" s="4">
+        <f t="shared" si="2"/>
+        <v>42913</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
       <c r="A182" t="s">
         <v>136</v>
       </c>
@@ -5534,8 +5611,12 @@
       <c r="C182" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="183" spans="1:3">
+      <c r="E182" s="4">
+        <f t="shared" si="2"/>
+        <v>42914</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
       <c r="A183" t="s">
         <v>162</v>
       </c>
@@ -5545,8 +5626,12 @@
       <c r="C183" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="184" spans="1:3">
+      <c r="E183" s="4">
+        <f t="shared" si="2"/>
+        <v>42914</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
       <c r="A184" t="s">
         <v>134</v>
       </c>
@@ -5556,8 +5641,12 @@
       <c r="C184" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="185" spans="1:3">
+      <c r="E184" s="4">
+        <f t="shared" si="2"/>
+        <v>42914</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
       <c r="A185" t="s">
         <v>193</v>
       </c>
@@ -5567,8 +5656,12 @@
       <c r="C185" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="186" spans="1:3">
+      <c r="E185" s="4">
+        <f t="shared" si="2"/>
+        <v>42915</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
       <c r="A186" t="s">
         <v>164</v>
       </c>
@@ -5578,8 +5671,12 @@
       <c r="C186" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="187" spans="1:3">
+      <c r="E186" s="4">
+        <f t="shared" si="2"/>
+        <v>42915</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
       <c r="A187" t="s">
         <v>167</v>
       </c>
@@ -5589,8 +5686,12 @@
       <c r="C187" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="188" spans="1:3">
+      <c r="E187" s="4">
+        <f t="shared" si="2"/>
+        <v>42915</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
       <c r="A188" t="s">
         <v>137</v>
       </c>
@@ -5600,8 +5701,12 @@
       <c r="C188" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="189" spans="1:3">
+      <c r="E188" s="4">
+        <f t="shared" si="2"/>
+        <v>42916</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
       <c r="A189" t="s">
         <v>150</v>
       </c>
@@ -5611,8 +5716,12 @@
       <c r="C189" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="190" spans="1:3">
+      <c r="E189" s="4">
+        <f t="shared" si="2"/>
+        <v>42916</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
       <c r="A190" t="s">
         <v>208</v>
       </c>
@@ -5622,8 +5731,12 @@
       <c r="C190" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="191" spans="1:3">
+      <c r="E190" s="4">
+        <f t="shared" si="2"/>
+        <v>42916</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
       <c r="A191" t="s">
         <v>152</v>
       </c>
@@ -5633,8 +5746,12 @@
       <c r="C191" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="192" spans="1:3">
+      <c r="E191" s="4">
+        <f t="shared" si="2"/>
+        <v>42917</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
       <c r="A192" t="s">
         <v>179</v>
       </c>
@@ -5644,8 +5761,12 @@
       <c r="C192" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="193" spans="1:3">
+      <c r="E192" s="4">
+        <f t="shared" si="2"/>
+        <v>42917</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
       <c r="A193" t="s">
         <v>210</v>
       </c>
@@ -5655,8 +5776,12 @@
       <c r="C193" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="194" spans="1:3">
+      <c r="E193" s="4">
+        <f t="shared" si="2"/>
+        <v>42917</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
       <c r="A194" t="s">
         <v>189</v>
       </c>
@@ -5666,8 +5791,12 @@
       <c r="C194" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="195" spans="1:3">
+      <c r="E194" s="4">
+        <f t="shared" si="2"/>
+        <v>42918</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
       <c r="A195" t="s">
         <v>160</v>
       </c>
@@ -5677,8 +5806,12 @@
       <c r="C195" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="196" spans="1:3">
+      <c r="E195" s="4">
+        <f t="shared" si="2"/>
+        <v>42918</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
       <c r="A196" t="s">
         <v>217</v>
       </c>
@@ -5688,8 +5821,12 @@
       <c r="C196" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="197" spans="1:3">
+      <c r="E196" s="4">
+        <f t="shared" si="2"/>
+        <v>42918</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
       <c r="A197" t="s">
         <v>148</v>
       </c>
@@ -5699,8 +5836,12 @@
       <c r="C197" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="198" spans="1:3">
+      <c r="E197" s="4">
+        <f t="shared" si="2"/>
+        <v>42919</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
       <c r="A198" t="s">
         <v>178</v>
       </c>
@@ -5710,8 +5851,12 @@
       <c r="C198" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="199" spans="1:3">
+      <c r="E198" s="4">
+        <f t="shared" si="2"/>
+        <v>42919</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
       <c r="A199" t="s">
         <v>156</v>
       </c>
@@ -5721,8 +5866,12 @@
       <c r="C199" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="200" spans="1:3">
+      <c r="E199" s="4">
+        <f t="shared" si="2"/>
+        <v>42919</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
       <c r="A200" t="s">
         <v>188</v>
       </c>
@@ -5732,8 +5881,12 @@
       <c r="C200" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="201" spans="1:3">
+      <c r="E200" s="4">
+        <f t="shared" si="2"/>
+        <v>42920</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
       <c r="A201" t="s">
         <v>159</v>
       </c>
@@ -5743,8 +5896,12 @@
       <c r="C201" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="202" spans="1:3">
+      <c r="E201" s="4">
+        <f t="shared" si="2"/>
+        <v>42920</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
       <c r="A202" t="s">
         <v>207</v>
       </c>
@@ -5754,8 +5911,12 @@
       <c r="C202" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="203" spans="1:3">
+      <c r="E202" s="4">
+        <f t="shared" si="2"/>
+        <v>42920</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
       <c r="A203" t="s">
         <v>185</v>
       </c>
@@ -5765,8 +5926,12 @@
       <c r="C203" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="204" spans="1:3">
+      <c r="E203" s="4">
+        <f t="shared" si="2"/>
+        <v>42921</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
       <c r="A204" t="s">
         <v>184</v>
       </c>
@@ -5776,8 +5941,12 @@
       <c r="C204" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="205" spans="1:3">
+      <c r="E204" s="4">
+        <f t="shared" si="2"/>
+        <v>42921</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
       <c r="A205" t="s">
         <v>158</v>
       </c>
@@ -5787,8 +5956,12 @@
       <c r="C205" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="206" spans="1:3">
+      <c r="E205" s="4">
+        <f t="shared" si="2"/>
+        <v>42921</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
       <c r="A206" t="s">
         <v>151</v>
       </c>
@@ -5798,8 +5971,12 @@
       <c r="C206" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="207" spans="1:3">
+      <c r="E206" s="4">
+        <f t="shared" si="2"/>
+        <v>42922</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
       <c r="A207" t="s">
         <v>155</v>
       </c>
@@ -5809,8 +5986,12 @@
       <c r="C207" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="208" spans="1:3">
+      <c r="E207" s="4">
+        <f t="shared" si="2"/>
+        <v>42922</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
       <c r="A208" t="s">
         <v>183</v>
       </c>
@@ -5820,8 +6001,12 @@
       <c r="C208" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="209" spans="1:3">
+      <c r="E208" s="4">
+        <f t="shared" si="2"/>
+        <v>42922</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
       <c r="A209" t="s">
         <v>209</v>
       </c>
@@ -5831,8 +6016,12 @@
       <c r="C209" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="210" spans="1:3">
+      <c r="E209" s="4">
+        <f t="shared" ref="E209:E241" si="3">E206+1</f>
+        <v>42923</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
       <c r="A210" t="s">
         <v>216</v>
       </c>
@@ -5842,8 +6031,12 @@
       <c r="C210" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="211" spans="1:3">
+      <c r="E210" s="4">
+        <f t="shared" si="3"/>
+        <v>42923</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
       <c r="A211" t="s">
         <v>215</v>
       </c>
@@ -5853,8 +6046,12 @@
       <c r="C211" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="212" spans="1:3">
+      <c r="E211" s="4">
+        <f t="shared" si="3"/>
+        <v>42923</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
       <c r="A212" t="s">
         <v>187</v>
       </c>
@@ -5864,8 +6061,12 @@
       <c r="C212" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="213" spans="1:3">
+      <c r="E212" s="4">
+        <f t="shared" si="3"/>
+        <v>42924</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
       <c r="A213" t="s">
         <v>149</v>
       </c>
@@ -5875,8 +6076,12 @@
       <c r="C213" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="214" spans="1:3">
+      <c r="E213" s="4">
+        <f t="shared" si="3"/>
+        <v>42924</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
       <c r="A214" t="s">
         <v>186</v>
       </c>
@@ -5886,8 +6091,12 @@
       <c r="C214" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="215" spans="1:3">
+      <c r="E214" s="4">
+        <f t="shared" si="3"/>
+        <v>42924</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
       <c r="A215" t="s">
         <v>202</v>
       </c>
@@ -5897,8 +6106,12 @@
       <c r="C215" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="216" spans="1:3">
+      <c r="E215" s="4">
+        <f t="shared" si="3"/>
+        <v>42925</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
       <c r="A216" t="s">
         <v>153</v>
       </c>
@@ -5908,8 +6121,12 @@
       <c r="C216" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="217" spans="1:3">
+      <c r="E216" s="4">
+        <f t="shared" si="3"/>
+        <v>42925</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
       <c r="A217" t="s">
         <v>177</v>
       </c>
@@ -5919,8 +6136,12 @@
       <c r="C217" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="218" spans="1:3">
+      <c r="E217" s="4">
+        <f t="shared" si="3"/>
+        <v>42925</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
       <c r="A218" t="s">
         <v>182</v>
       </c>
@@ -5930,8 +6151,12 @@
       <c r="C218" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="219" spans="1:3">
+      <c r="E218" s="4">
+        <f t="shared" si="3"/>
+        <v>42926</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
       <c r="A219" t="s">
         <v>211</v>
       </c>
@@ -5941,8 +6166,12 @@
       <c r="C219" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="220" spans="1:3">
+      <c r="E219" s="4">
+        <f t="shared" si="3"/>
+        <v>42926</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
       <c r="A220" t="s">
         <v>180</v>
       </c>
@@ -5952,8 +6181,12 @@
       <c r="C220" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="221" spans="1:3">
+      <c r="E220" s="4">
+        <f t="shared" si="3"/>
+        <v>42926</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
       <c r="A221" t="s">
         <v>181</v>
       </c>
@@ -5963,8 +6196,12 @@
       <c r="C221" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="222" spans="1:3">
+      <c r="E221" s="4">
+        <f t="shared" si="3"/>
+        <v>42927</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
       <c r="A222" t="s">
         <v>154</v>
       </c>
@@ -5974,8 +6211,12 @@
       <c r="C222" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="223" spans="1:3">
+      <c r="E222" s="4">
+        <f t="shared" si="3"/>
+        <v>42927</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
       <c r="A223" t="s">
         <v>157</v>
       </c>
@@ -5985,8 +6226,12 @@
       <c r="C223" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="224" spans="1:3">
+      <c r="E223" s="4">
+        <f t="shared" si="3"/>
+        <v>42927</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
       <c r="A224" t="s">
         <v>214</v>
       </c>
@@ -5996,8 +6241,12 @@
       <c r="C224" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="225" spans="1:3">
+      <c r="E224" s="4">
+        <f t="shared" si="3"/>
+        <v>42928</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
       <c r="A225" t="s">
         <v>173</v>
       </c>
@@ -6007,8 +6256,12 @@
       <c r="C225" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="226" spans="1:3">
+      <c r="E225" s="4">
+        <f t="shared" si="3"/>
+        <v>42928</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
       <c r="A226" t="s">
         <v>212</v>
       </c>
@@ -6018,8 +6271,12 @@
       <c r="C226" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="227" spans="1:3">
+      <c r="E226" s="4">
+        <f t="shared" si="3"/>
+        <v>42928</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
       <c r="A227" t="s">
         <v>213</v>
       </c>
@@ -6029,8 +6286,12 @@
       <c r="C227" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="228" spans="1:3">
+      <c r="E227" s="4">
+        <f t="shared" si="3"/>
+        <v>42929</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
       <c r="A228" t="s">
         <v>272</v>
       </c>
@@ -6040,8 +6301,12 @@
       <c r="C228" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="229" spans="1:3">
+      <c r="E228" s="4">
+        <f t="shared" si="3"/>
+        <v>42929</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
       <c r="A229" t="s">
         <v>273</v>
       </c>
@@ -6051,8 +6316,12 @@
       <c r="C229" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="230" spans="1:3">
+      <c r="E229" s="4">
+        <f t="shared" si="3"/>
+        <v>42929</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
       <c r="A230" t="s">
         <v>280</v>
       </c>
@@ -6062,8 +6331,12 @@
       <c r="C230" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="231" spans="1:3">
+      <c r="E230" s="4">
+        <f t="shared" si="3"/>
+        <v>42930</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
       <c r="A231" t="s">
         <v>276</v>
       </c>
@@ -6073,8 +6346,12 @@
       <c r="C231" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="232" spans="1:3">
+      <c r="E231" s="4">
+        <f t="shared" si="3"/>
+        <v>42930</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
       <c r="A232" t="s">
         <v>277</v>
       </c>
@@ -6084,8 +6361,12 @@
       <c r="C232" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="233" spans="1:3">
+      <c r="E232" s="4">
+        <f t="shared" si="3"/>
+        <v>42930</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
       <c r="A233" t="s">
         <v>274</v>
       </c>
@@ -6095,8 +6376,12 @@
       <c r="C233" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="234" spans="1:3">
+      <c r="E233" s="4">
+        <f t="shared" si="3"/>
+        <v>42931</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
       <c r="A234" t="s">
         <v>281</v>
       </c>
@@ -6106,8 +6391,12 @@
       <c r="C234" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="235" spans="1:3">
+      <c r="E234" s="4">
+        <f t="shared" si="3"/>
+        <v>42931</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
       <c r="A235" t="s">
         <v>275</v>
       </c>
@@ -6117,8 +6406,12 @@
       <c r="C235" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="236" spans="1:3">
+      <c r="E235" s="4">
+        <f t="shared" si="3"/>
+        <v>42931</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
       <c r="A236" t="s">
         <v>278</v>
       </c>
@@ -6128,8 +6421,12 @@
       <c r="C236" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="237" spans="1:3">
+      <c r="E236" s="4">
+        <f t="shared" si="3"/>
+        <v>42932</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
       <c r="A237" t="s">
         <v>279</v>
       </c>
@@ -6139,8 +6436,12 @@
       <c r="C237" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="238" spans="1:3">
+      <c r="E237" s="4">
+        <f t="shared" si="3"/>
+        <v>42932</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
       <c r="A238" t="s">
         <v>282</v>
       </c>
@@ -6150,8 +6451,12 @@
       <c r="C238" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="239" spans="1:3">
+      <c r="E238" s="4">
+        <f t="shared" si="3"/>
+        <v>42932</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
       <c r="A239" t="s">
         <v>246</v>
       </c>
@@ -6161,8 +6466,12 @@
       <c r="C239" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="240" spans="1:3">
+      <c r="E239" s="4">
+        <f t="shared" si="3"/>
+        <v>42933</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
       <c r="A240" t="s">
         <v>235</v>
       </c>
@@ -6172,8 +6481,12 @@
       <c r="C240" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="241" spans="1:3">
+      <c r="E240" s="4">
+        <f t="shared" si="3"/>
+        <v>42933</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
       <c r="A241" t="s">
         <v>251</v>
       </c>
@@ -6183,8 +6496,12 @@
       <c r="C241" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="242" spans="1:3">
+      <c r="E241" s="4">
+        <f t="shared" si="3"/>
+        <v>42933</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
       <c r="A242" t="s">
         <v>225</v>
       </c>
@@ -6195,7 +6512,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:5">
       <c r="A243" t="s">
         <v>223</v>
       </c>
@@ -6206,7 +6523,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:5">
       <c r="A244" t="s">
         <v>250</v>
       </c>
@@ -6217,7 +6534,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:5">
       <c r="A245" t="s">
         <v>232</v>
       </c>
@@ -6228,7 +6545,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:5">
       <c r="A246" t="s">
         <v>239</v>
       </c>
@@ -6239,7 +6556,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:5">
       <c r="A247" t="s">
         <v>224</v>
       </c>
@@ -6250,7 +6567,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:5">
       <c r="A248" t="s">
         <v>249</v>
       </c>
@@ -6261,7 +6578,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:5">
       <c r="A249" t="s">
         <v>219</v>
       </c>
@@ -6272,7 +6589,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:5">
       <c r="A250" t="s">
         <v>248</v>
       </c>
@@ -6283,7 +6600,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:5">
       <c r="A251" t="s">
         <v>221</v>
       </c>
@@ -6294,7 +6611,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:5">
       <c r="A252" t="s">
         <v>237</v>
       </c>
@@ -6305,7 +6622,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:5">
       <c r="A253" t="s">
         <v>238</v>
       </c>
@@ -6316,7 +6633,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:5">
       <c r="A254" t="s">
         <v>220</v>
       </c>
@@ -6327,7 +6644,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:5">
       <c r="A255" t="s">
         <v>218</v>
       </c>
@@ -6338,7 +6655,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:5">
       <c r="A256" t="s">
         <v>234</v>
       </c>
@@ -6694,7 +7011,7 @@
     </row>
     <row r="286" spans="1:9">
       <c r="A286" t="s">
-        <v>317</v>
+        <v>292</v>
       </c>
       <c r="B286" t="s">
         <v>529</v>
@@ -6711,7 +7028,7 @@
     </row>
     <row r="287" spans="1:9">
       <c r="A287" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B287" t="s">
         <v>529</v>
@@ -6728,7 +7045,7 @@
     </row>
     <row r="288" spans="1:9">
       <c r="A288" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="B288" t="s">
         <v>529</v>
@@ -6745,7 +7062,7 @@
     </row>
     <row r="289" spans="1:5">
       <c r="A289" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="B289" t="s">
         <v>529</v>
@@ -6762,7 +7079,7 @@
     </row>
     <row r="290" spans="1:5">
       <c r="A290" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B290" t="s">
         <v>529</v>
@@ -6779,7 +7096,7 @@
     </row>
     <row r="291" spans="1:5">
       <c r="A291" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="B291" t="s">
         <v>529</v>
@@ -6796,7 +7113,7 @@
     </row>
     <row r="292" spans="1:5">
       <c r="A292" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B292" t="s">
         <v>529</v>
@@ -6813,7 +7130,7 @@
     </row>
     <row r="293" spans="1:5">
       <c r="A293" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B293" t="s">
         <v>529</v>
@@ -6830,7 +7147,7 @@
     </row>
     <row r="294" spans="1:5">
       <c r="A294" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B294" t="s">
         <v>529</v>
